--- a/design/chitiet/productDetail.xlsx
+++ b/design/chitiet/productDetail.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="121">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -428,13 +428,13 @@
     <t xml:space="preserve">Name </t>
   </si>
   <si>
-    <t xml:space="preserve">Chuỗi chữ</t>
+    <t xml:space="preserve">String </t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Textbox</t>
+    <t xml:space="preserve">Text</t>
   </si>
   <si>
     <t xml:space="preserve">lấy từ cở sở dư liệu </t>
@@ -443,16 +443,10 @@
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve">số </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.000đ</t>
-  </si>
-  <si>
     <t xml:space="preserve">Image</t>
   </si>
   <si>
-    <t xml:space="preserve">link ảnh </t>
+    <t xml:space="preserve">file </t>
   </si>
   <si>
     <t xml:space="preserve">image </t>
@@ -470,10 +464,19 @@
     <t xml:space="preserve">[Vùng cô định]</t>
   </si>
   <si>
-    <t xml:space="preserve">Header </t>
+    <t xml:space="preserve">Giao hàng nhanh chóng </t>
   </si>
   <si>
-    <t xml:space="preserve">Component </t>
+    <t xml:space="preserve">Text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bảo hành lên tới 5 năm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hỗ trợ 24/7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miễn phí vận chuyển </t>
   </si>
   <si>
     <t xml:space="preserve">Thái  </t>
@@ -494,10 +497,7 @@
     <t xml:space="preserve">1. Nhấn nút thêm vào giỏ hàng để thực hiện</t>
   </si>
   <si>
-    <t xml:space="preserve">2. thêm vào giỏ hàng khi chưa đăng nhập thông báo lỗi và chuyển đến trang đăng nhập </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. thêm thanh công thi thông báo thành công </t>
+    <t xml:space="preserve">2. thêm thanh công thi thông báo thành công </t>
   </si>
   <si>
     <t xml:space="preserve">10. Xử lý chi tiết</t>
@@ -506,7 +506,7 @@
     <t xml:space="preserve">1. Thực hiện khởi tạo màn hình ban đầu</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Nhấn nút productDetail thì thực hiện xử lý.</t>
+    <t xml:space="preserve">1. Nhấn nút thêm vào giỏ hàng thì thực hiện xử lý.</t>
   </si>
   <si>
     <t xml:space="preserve">2. Xử lý check</t>
@@ -539,7 +539,13 @@
     <t xml:space="preserve">Truy xuất</t>
   </si>
   <si>
-    <t xml:space="preserve">idProductInCart.push(URL.id) </t>
+    <t xml:space="preserve">cart_item </t>
+  </si>
+  <si>
+    <t xml:space="preserve">productID.values = [vùng nhập].values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">userId.values = [vùng nhập].values </t>
   </si>
   <si>
     <t xml:space="preserve">Thông báo</t>
@@ -1165,7 +1171,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="216">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1882,80 +1888,36 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1986,22 +1948,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2062,10 +2008,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2079,6 +2021,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2168,9 +2122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2184,7 +2138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="676080" cy="970200"/>
+          <a:ext cx="675720" cy="969840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2205,9 +2159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122400</xdr:colOff>
+      <xdr:colOff>122040</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2217,7 +2171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779920" cy="2608560"/>
+          <a:ext cx="2779560" cy="2608200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2249,9 +2203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2261,7 +2215,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188720" cy="427320"/>
+          <a:ext cx="1188360" cy="426960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2319,9 +2273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>65160</xdr:colOff>
+      <xdr:colOff>64800</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2331,7 +2285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995400" cy="398520"/>
+          <a:ext cx="995040" cy="398160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2493,9 +2447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>179280</xdr:colOff>
+      <xdr:colOff>178920</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2505,7 +2459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="914040" cy="398880"/>
+          <a:ext cx="913680" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2561,9 +2515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2577,7 +2531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="676080" cy="970200"/>
+          <a:ext cx="675720" cy="969840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2598,9 +2552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>125640</xdr:colOff>
+      <xdr:colOff>125280</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2610,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2147400" y="24320520"/>
-          <a:ext cx="955080" cy="646200"/>
+          <a:ext cx="954720" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2650,79 +2604,7 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>P</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>r</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>o</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>u</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>c</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>t</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t>s</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>Products </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2741,9 +2623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2752,8 +2634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2563200" y="23535000"/>
-          <a:ext cx="933120" cy="771480"/>
+          <a:off x="2563200" y="23535360"/>
+          <a:ext cx="932760" cy="771120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2798,9 +2680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>140760</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2810,7 +2692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3279240" y="24444720"/>
-          <a:ext cx="955080" cy="646200"/>
+          <a:ext cx="954720" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2869,9 +2751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>69840</xdr:colOff>
+      <xdr:colOff>69480</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2880,8 +2762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3744360" y="23558400"/>
-          <a:ext cx="232560" cy="911880"/>
+          <a:off x="3744360" y="23558760"/>
+          <a:ext cx="232200" cy="911520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2926,9 +2808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>79200</xdr:colOff>
+      <xdr:colOff>78840</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2938,7 +2820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4519800" y="24437160"/>
-          <a:ext cx="955080" cy="646200"/>
+          <a:ext cx="954720" cy="645840"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2991,15 +2873,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>132</xdr:row>
       <xdr:rowOff>62280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185400</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3008,8 +2890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4000320" y="23550480"/>
-          <a:ext cx="1023120" cy="873000"/>
+          <a:off x="3999600" y="23550840"/>
+          <a:ext cx="1022760" cy="872640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3059,9 +2941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3071,7 +2953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4817160" cy="417960"/>
+          <a:ext cx="4816800" cy="417600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3101,15 +2983,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:colOff>170640</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:colOff>102240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3122,8 +3004,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="620280" y="984240"/>
-          <a:ext cx="7997400" cy="4823640"/>
+          <a:off x="728640" y="1225080"/>
+          <a:ext cx="7835760" cy="4715280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11058,13 +10940,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ1048575"/>
+  <dimension ref="A1:BJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A130" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ171" activeCellId="0" sqref="AJ171"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D149" activeCellId="0" sqref="D149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="2.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="2.64"/>
@@ -12105,8 +11987,8 @@
       <c r="G50" s="120"/>
       <c r="H50" s="120"/>
       <c r="I50" s="121"/>
-      <c r="J50" s="122" t="s">
-        <v>77</v>
+      <c r="J50" s="112" t="s">
+        <v>72</v>
       </c>
       <c r="K50" s="120"/>
       <c r="L50" s="120"/>
@@ -12123,15 +12005,13 @@
         <v>54</v>
       </c>
       <c r="U50" s="107"/>
-      <c r="V50" s="115" t="s">
+      <c r="V50" s="108" t="s">
         <v>74</v>
       </c>
       <c r="W50" s="119"/>
       <c r="X50" s="119"/>
       <c r="Y50" s="123"/>
-      <c r="Z50" s="124" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z50" s="124"/>
       <c r="AA50" s="119"/>
       <c r="AB50" s="119"/>
       <c r="AC50" s="119"/>
@@ -12165,7 +12045,7 @@
         <v>3</v>
       </c>
       <c r="D51" s="115" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E51" s="119"/>
       <c r="F51" s="119"/>
@@ -12173,7 +12053,7 @@
       <c r="H51" s="120"/>
       <c r="I51" s="121"/>
       <c r="J51" s="122" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K51" s="120"/>
       <c r="L51" s="120"/>
@@ -12191,7 +12071,7 @@
       </c>
       <c r="U51" s="107"/>
       <c r="V51" s="115" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="W51" s="119"/>
       <c r="X51" s="119"/>
@@ -12282,7 +12162,7 @@
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
       <c r="C54" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
@@ -12394,7 +12274,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="141" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E56" s="97"/>
       <c r="F56" s="97"/>
@@ -12406,7 +12286,7 @@
       <c r="L56" s="97"/>
       <c r="M56" s="142"/>
       <c r="N56" s="143" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O56" s="144"/>
       <c r="P56" s="144"/>
@@ -12598,7 +12478,7 @@
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
       <c r="C60" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
@@ -12712,7 +12592,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="141" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E62" s="97"/>
       <c r="F62" s="97"/>
@@ -12724,7 +12604,7 @@
       <c r="L62" s="97"/>
       <c r="M62" s="142"/>
       <c r="N62" s="143" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O62" s="144"/>
       <c r="P62" s="144"/>
@@ -12765,8 +12645,12 @@
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="148"/>
+      <c r="C63" s="140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" s="148" t="s">
+        <v>86</v>
+      </c>
       <c r="E63" s="149"/>
       <c r="F63" s="149"/>
       <c r="G63" s="149"/>
@@ -12776,7 +12660,9 @@
       <c r="K63" s="149"/>
       <c r="L63" s="149"/>
       <c r="M63" s="150"/>
-      <c r="N63" s="148"/>
+      <c r="N63" s="143" t="s">
+        <v>85</v>
+      </c>
       <c r="O63" s="149"/>
       <c r="P63" s="149"/>
       <c r="Q63" s="149"/>
@@ -12816,8 +12702,12 @@
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="152"/>
-      <c r="D64" s="153"/>
+      <c r="C64" s="140" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" s="153" t="s">
+        <v>87</v>
+      </c>
       <c r="E64" s="154"/>
       <c r="F64" s="154"/>
       <c r="G64" s="154"/>
@@ -12827,7 +12717,9 @@
       <c r="K64" s="154"/>
       <c r="L64" s="154"/>
       <c r="M64" s="155"/>
-      <c r="N64" s="156"/>
+      <c r="N64" s="143" t="s">
+        <v>85</v>
+      </c>
       <c r="O64" s="157"/>
       <c r="P64" s="157"/>
       <c r="Q64" s="157"/>
@@ -12867,51 +12759,58 @@
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="161"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
-      <c r="Q65" s="19"/>
-      <c r="R65" s="19"/>
-      <c r="S65" s="19"/>
-      <c r="T65" s="19"/>
-      <c r="U65" s="19"/>
-      <c r="V65" s="19"/>
-      <c r="W65" s="19"/>
-      <c r="X65" s="19"/>
-      <c r="Y65" s="137"/>
-      <c r="Z65" s="137"/>
-      <c r="AA65" s="137"/>
-      <c r="AB65" s="19"/>
-      <c r="AC65" s="19"/>
-      <c r="AD65" s="19"/>
-      <c r="AE65" s="19"/>
-      <c r="AF65" s="137"/>
-      <c r="AG65" s="137"/>
-      <c r="AH65" s="19"/>
-      <c r="AI65" s="19"/>
-      <c r="AJ65" s="19"/>
-      <c r="AK65" s="19"/>
-      <c r="AL65" s="19"/>
-      <c r="AM65" s="19"/>
-      <c r="AN65" s="19"/>
-      <c r="AO65" s="19"/>
-      <c r="AP65" s="19"/>
-      <c r="AQ65" s="19"/>
-      <c r="AR65" s="19"/>
-      <c r="AS65" s="19"/>
-      <c r="AT65" s="19"/>
-      <c r="AU65" s="19"/>
+      <c r="C65" s="140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D65" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="154"/>
+      <c r="F65" s="154"/>
+      <c r="G65" s="154"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="154"/>
+      <c r="J65" s="154"/>
+      <c r="K65" s="154"/>
+      <c r="L65" s="154"/>
+      <c r="M65" s="155"/>
+      <c r="N65" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="O65" s="157"/>
+      <c r="P65" s="157"/>
+      <c r="Q65" s="157"/>
+      <c r="R65" s="157"/>
+      <c r="S65" s="157"/>
+      <c r="T65" s="157"/>
+      <c r="U65" s="157"/>
+      <c r="V65" s="157"/>
+      <c r="W65" s="158"/>
+      <c r="X65" s="156"/>
+      <c r="Y65" s="159"/>
+      <c r="Z65" s="159"/>
+      <c r="AA65" s="159"/>
+      <c r="AB65" s="157"/>
+      <c r="AC65" s="157"/>
+      <c r="AD65" s="157"/>
+      <c r="AE65" s="157"/>
+      <c r="AF65" s="159"/>
+      <c r="AG65" s="159"/>
+      <c r="AH65" s="157"/>
+      <c r="AI65" s="157"/>
+      <c r="AJ65" s="157"/>
+      <c r="AK65" s="157"/>
+      <c r="AL65" s="157"/>
+      <c r="AM65" s="157"/>
+      <c r="AN65" s="157"/>
+      <c r="AO65" s="157"/>
+      <c r="AP65" s="157"/>
+      <c r="AQ65" s="157"/>
+      <c r="AR65" s="157"/>
+      <c r="AS65" s="157"/>
+      <c r="AT65" s="157"/>
+      <c r="AU65" s="157"/>
+      <c r="AV65" s="160"/>
       <c r="AW65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13718,7 +13617,7 @@
       </c>
       <c r="AN81" s="6"/>
       <c r="AO81" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP81" s="7"/>
       <c r="AQ81" s="7"/>
@@ -13864,7 +13763,7 @@
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
       <c r="B85" s="59" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D85" s="19"/>
       <c r="E85" s="19"/>
@@ -13897,7 +13796,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="C86" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13930,7 +13829,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="D87" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -13992,7 +13891,7 @@
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
       <c r="C89" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -14025,7 +13924,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="D90" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E90" s="19"/>
       <c r="F90" s="19"/>
@@ -14056,9 +13955,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
-      <c r="D91" s="19" t="s">
-        <v>94</v>
-      </c>
+      <c r="D91" s="19"/>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
@@ -15207,7 +15104,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="C126" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -15301,69 +15198,67 @@
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
-      <c r="B129" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AL129" s="19"/>
       <c r="AM129" s="19"/>
       <c r="AN129" s="19"/>
       <c r="AO129" s="19"/>
-      <c r="AQ129" s="19"/>
+      <c r="AP129" s="19"/>
       <c r="AR129" s="19"/>
       <c r="AS129" s="19"/>
       <c r="AT129" s="19"/>
-      <c r="AV129" s="19"/>
+      <c r="AU129" s="19"/>
       <c r="AW129" s="20"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
-      <c r="B130" s="72" t="s">
+      <c r="C130" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="C130" s="72" t="s">
+      <c r="D130" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D130" s="72"/>
       <c r="E130" s="72"/>
       <c r="F130" s="72"/>
       <c r="G130" s="72"/>
       <c r="H130" s="72"/>
-      <c r="I130" s="104" t="s">
+      <c r="I130" s="72"/>
+      <c r="J130" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="J130" s="104"/>
       <c r="K130" s="104"/>
       <c r="L130" s="104"/>
-      <c r="M130" s="104" t="s">
+      <c r="M130" s="104"/>
+      <c r="N130" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="N130" s="104"/>
       <c r="O130" s="104"/>
-      <c r="P130" s="72" t="s">
+      <c r="P130" s="104"/>
+      <c r="Q130" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="Q130" s="72"/>
       <c r="R130" s="72"/>
-      <c r="S130" s="72" t="s">
+      <c r="S130" s="72"/>
+      <c r="T130" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="T130" s="72"/>
-      <c r="U130" s="73" t="s">
+      <c r="U130" s="72"/>
+      <c r="V130" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="V130" s="73"/>
       <c r="W130" s="73"/>
       <c r="X130" s="73"/>
-      <c r="Y130" s="105" t="s">
+      <c r="Y130" s="73"/>
+      <c r="Z130" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="Z130" s="105"/>
       <c r="AA130" s="105"/>
       <c r="AB130" s="105"/>
-      <c r="AC130" s="73" t="s">
+      <c r="AC130" s="105"/>
+      <c r="AD130" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="AD130" s="73"/>
       <c r="AE130" s="73"/>
       <c r="AF130" s="73"/>
       <c r="AG130" s="73"/>
@@ -15381,56 +15276,55 @@
       <c r="AS130" s="73"/>
       <c r="AT130" s="73"/>
       <c r="AU130" s="73"/>
-      <c r="AV130" s="19"/>
+      <c r="AV130" s="73"/>
       <c r="AW130" s="20"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
-      <c r="B131" s="107" t="n">
+      <c r="C131" s="107" t="n">
         <v>1</v>
       </c>
-      <c r="C131" s="108" t="s">
+      <c r="D131" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="D131" s="109"/>
       <c r="E131" s="109"/>
-      <c r="F131" s="110"/>
+      <c r="F131" s="109"/>
       <c r="G131" s="110"/>
-      <c r="H131" s="111"/>
-      <c r="I131" s="112" t="s">
+      <c r="H131" s="110"/>
+      <c r="I131" s="111"/>
+      <c r="J131" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="J131" s="110"/>
       <c r="K131" s="110"/>
       <c r="L131" s="110"/>
-      <c r="M131" s="112"/>
-      <c r="N131" s="110" t="n">
+      <c r="M131" s="110"/>
+      <c r="N131" s="112"/>
+      <c r="O131" s="110" t="n">
         <v>32</v>
       </c>
-      <c r="O131" s="110"/>
-      <c r="P131" s="112"/>
-      <c r="Q131" s="110" t="s">
+      <c r="P131" s="110"/>
+      <c r="Q131" s="112"/>
+      <c r="R131" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="R131" s="113"/>
-      <c r="S131" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="T131" s="107"/>
-      <c r="U131" s="108" t="s">
+      <c r="S131" s="113"/>
+      <c r="T131" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="U131" s="107"/>
+      <c r="V131" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="V131" s="109"/>
       <c r="W131" s="109"/>
-      <c r="X131" s="113"/>
-      <c r="Y131" s="114"/>
-      <c r="Z131" s="109"/>
+      <c r="X131" s="109"/>
+      <c r="Y131" s="113"/>
+      <c r="Z131" s="114"/>
       <c r="AA131" s="109"/>
       <c r="AB131" s="109"/>
-      <c r="AC131" s="115" t="s">
+      <c r="AC131" s="109"/>
+      <c r="AD131" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="AD131" s="109"/>
       <c r="AE131" s="109"/>
       <c r="AF131" s="109"/>
       <c r="AG131" s="109"/>
@@ -15447,57 +15341,54 @@
       <c r="AR131" s="109"/>
       <c r="AS131" s="109"/>
       <c r="AT131" s="109"/>
-      <c r="AU131" s="116"/>
-      <c r="AV131" s="19"/>
+      <c r="AU131" s="109"/>
+      <c r="AV131" s="116"/>
       <c r="AW131" s="20"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
-      <c r="B132" s="118" t="n">
+      <c r="C132" s="118" t="n">
         <v>2</v>
       </c>
-      <c r="C132" s="115" t="s">
+      <c r="D132" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="D132" s="119"/>
       <c r="E132" s="119"/>
-      <c r="F132" s="120"/>
+      <c r="F132" s="119"/>
       <c r="G132" s="120"/>
-      <c r="H132" s="121"/>
-      <c r="I132" s="122" t="s">
-        <v>77</v>
-      </c>
-      <c r="J132" s="120"/>
+      <c r="H132" s="120"/>
+      <c r="I132" s="121"/>
+      <c r="J132" s="112" t="s">
+        <v>72</v>
+      </c>
       <c r="K132" s="120"/>
       <c r="L132" s="120"/>
-      <c r="M132" s="122"/>
-      <c r="N132" s="120"/>
+      <c r="M132" s="120"/>
+      <c r="N132" s="122"/>
       <c r="O132" s="120"/>
-      <c r="P132" s="122"/>
-      <c r="Q132" s="120" t="s">
+      <c r="P132" s="120"/>
+      <c r="Q132" s="122"/>
+      <c r="R132" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="R132" s="123"/>
-      <c r="S132" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="T132" s="118"/>
-      <c r="U132" s="115" t="s">
+      <c r="S132" s="123"/>
+      <c r="T132" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="U132" s="107"/>
+      <c r="V132" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="V132" s="119"/>
       <c r="W132" s="119"/>
-      <c r="X132" s="123"/>
-      <c r="Y132" s="124" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z132" s="119"/>
+      <c r="X132" s="119"/>
+      <c r="Y132" s="123"/>
+      <c r="Z132" s="124"/>
       <c r="AA132" s="119"/>
       <c r="AB132" s="119"/>
-      <c r="AC132" s="115" t="s">
+      <c r="AC132" s="119"/>
+      <c r="AD132" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="AD132" s="119"/>
       <c r="AE132" s="119"/>
       <c r="AF132" s="119"/>
       <c r="AG132" s="119"/>
@@ -15514,55 +15405,54 @@
       <c r="AR132" s="119"/>
       <c r="AS132" s="119"/>
       <c r="AT132" s="119"/>
-      <c r="AU132" s="125"/>
-      <c r="AV132" s="19"/>
+      <c r="AU132" s="119"/>
+      <c r="AV132" s="125"/>
       <c r="AW132" s="20"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
-      <c r="B133" s="118" t="n">
+      <c r="C133" s="118" t="n">
         <v>3</v>
       </c>
-      <c r="C133" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="D133" s="119"/>
+      <c r="D133" s="115" t="s">
+        <v>77</v>
+      </c>
       <c r="E133" s="119"/>
-      <c r="F133" s="120"/>
+      <c r="F133" s="119"/>
       <c r="G133" s="120"/>
-      <c r="H133" s="121"/>
-      <c r="I133" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="J133" s="120"/>
+      <c r="H133" s="120"/>
+      <c r="I133" s="121"/>
+      <c r="J133" s="122" t="s">
+        <v>78</v>
+      </c>
       <c r="K133" s="120"/>
       <c r="L133" s="120"/>
-      <c r="M133" s="122"/>
-      <c r="N133" s="120"/>
+      <c r="M133" s="120"/>
+      <c r="N133" s="122"/>
       <c r="O133" s="120"/>
-      <c r="P133" s="122"/>
-      <c r="Q133" s="120" t="s">
+      <c r="P133" s="120"/>
+      <c r="Q133" s="122"/>
+      <c r="R133" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="R133" s="123"/>
-      <c r="S133" s="118" t="s">
-        <v>57</v>
-      </c>
-      <c r="T133" s="118"/>
-      <c r="U133" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="V133" s="119"/>
+      <c r="S133" s="123"/>
+      <c r="T133" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="U133" s="107"/>
+      <c r="V133" s="115" t="s">
+        <v>79</v>
+      </c>
       <c r="W133" s="119"/>
-      <c r="X133" s="123"/>
-      <c r="Y133" s="126"/>
-      <c r="Z133" s="119"/>
+      <c r="X133" s="119"/>
+      <c r="Y133" s="123"/>
+      <c r="Z133" s="126"/>
       <c r="AA133" s="119"/>
       <c r="AB133" s="119"/>
-      <c r="AC133" s="115" t="s">
+      <c r="AC133" s="119"/>
+      <c r="AD133" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="AD133" s="119"/>
       <c r="AE133" s="119"/>
       <c r="AF133" s="119"/>
       <c r="AG133" s="119"/>
@@ -15579,41 +15469,40 @@
       <c r="AR133" s="119"/>
       <c r="AS133" s="119"/>
       <c r="AT133" s="119"/>
-      <c r="AU133" s="125"/>
-      <c r="AV133" s="19"/>
+      <c r="AU133" s="119"/>
+      <c r="AV133" s="125"/>
       <c r="AW133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
-      <c r="B134" s="127"/>
-      <c r="C134" s="128"/>
-      <c r="D134" s="129"/>
+      <c r="C134" s="127"/>
+      <c r="D134" s="128"/>
       <c r="E134" s="129"/>
-      <c r="F134" s="130"/>
+      <c r="F134" s="129"/>
       <c r="G134" s="130"/>
-      <c r="H134" s="131"/>
-      <c r="I134" s="132"/>
-      <c r="J134" s="130"/>
+      <c r="H134" s="130"/>
+      <c r="I134" s="131"/>
+      <c r="J134" s="132"/>
       <c r="K134" s="130"/>
       <c r="L134" s="130"/>
-      <c r="M134" s="132"/>
-      <c r="N134" s="130"/>
+      <c r="M134" s="130"/>
+      <c r="N134" s="132"/>
       <c r="O134" s="130"/>
-      <c r="P134" s="132"/>
-      <c r="Q134" s="130"/>
-      <c r="R134" s="133"/>
-      <c r="S134" s="134"/>
-      <c r="T134" s="135"/>
-      <c r="U134" s="128"/>
-      <c r="V134" s="129"/>
+      <c r="P134" s="130"/>
+      <c r="Q134" s="132"/>
+      <c r="R134" s="130"/>
+      <c r="S134" s="133"/>
+      <c r="T134" s="134"/>
+      <c r="U134" s="135"/>
+      <c r="V134" s="128"/>
       <c r="W134" s="129"/>
-      <c r="X134" s="133"/>
-      <c r="Y134" s="134"/>
-      <c r="Z134" s="129"/>
+      <c r="X134" s="129"/>
+      <c r="Y134" s="133"/>
+      <c r="Z134" s="134"/>
       <c r="AA134" s="129"/>
       <c r="AB134" s="129"/>
-      <c r="AC134" s="128"/>
-      <c r="AD134" s="129"/>
+      <c r="AC134" s="129"/>
+      <c r="AD134" s="128"/>
       <c r="AE134" s="129"/>
       <c r="AF134" s="129"/>
       <c r="AG134" s="129"/>
@@ -15630,22 +15519,19 @@
       <c r="AR134" s="129"/>
       <c r="AS134" s="129"/>
       <c r="AT134" s="129"/>
-      <c r="AU134" s="136"/>
-      <c r="AV134" s="19"/>
+      <c r="AU134" s="129"/>
+      <c r="AV134" s="136"/>
       <c r="AW134" s="20"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
-      <c r="B135" s="9"/>
-      <c r="AV135" s="19"/>
       <c r="AW135" s="20"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
-      <c r="B136" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" s="19"/>
+      <c r="C136" s="19" t="s">
+        <v>80</v>
+      </c>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
       <c r="F136" s="19"/>
@@ -15664,17 +15550,17 @@
       <c r="S136" s="19"/>
       <c r="T136" s="19"/>
       <c r="U136" s="19"/>
-      <c r="V136" s="137"/>
+      <c r="V136" s="19"/>
       <c r="W136" s="137"/>
       <c r="X136" s="137"/>
       <c r="Y136" s="137"/>
-      <c r="Z136" s="19"/>
+      <c r="Z136" s="137"/>
       <c r="AA136" s="19"/>
       <c r="AB136" s="19"/>
       <c r="AC136" s="19"/>
-      <c r="AD136" s="137"/>
+      <c r="AD136" s="19"/>
       <c r="AE136" s="137"/>
-      <c r="AF136" s="19"/>
+      <c r="AF136" s="137"/>
       <c r="AG136" s="19"/>
       <c r="AH136" s="19"/>
       <c r="AI136" s="19"/>
@@ -15689,18 +15575,17 @@
       <c r="AR136" s="19"/>
       <c r="AS136" s="19"/>
       <c r="AT136" s="19"/>
-      <c r="AV136" s="19"/>
+      <c r="AU136" s="19"/>
       <c r="AW136" s="20"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
-      <c r="B137" s="138" t="s">
+      <c r="C137" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C137" s="72" t="s">
+      <c r="D137" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D137" s="72"/>
       <c r="E137" s="72"/>
       <c r="F137" s="72"/>
       <c r="G137" s="72"/>
@@ -15709,10 +15594,10 @@
       <c r="J137" s="72"/>
       <c r="K137" s="72"/>
       <c r="L137" s="72"/>
-      <c r="M137" s="139" t="s">
+      <c r="M137" s="72"/>
+      <c r="N137" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="N137" s="139"/>
       <c r="O137" s="139"/>
       <c r="P137" s="139"/>
       <c r="Q137" s="139"/>
@@ -15721,10 +15606,10 @@
       <c r="T137" s="139"/>
       <c r="U137" s="139"/>
       <c r="V137" s="139"/>
-      <c r="W137" s="73" t="s">
+      <c r="W137" s="139"/>
+      <c r="X137" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="X137" s="73"/>
       <c r="Y137" s="73"/>
       <c r="Z137" s="73"/>
       <c r="AA137" s="73"/>
@@ -15748,18 +15633,17 @@
       <c r="AS137" s="73"/>
       <c r="AT137" s="73"/>
       <c r="AU137" s="73"/>
-      <c r="AV137" s="19"/>
+      <c r="AV137" s="73"/>
       <c r="AW137" s="20"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
-      <c r="B138" s="140" t="n">
+      <c r="C138" s="140" t="n">
         <v>1</v>
       </c>
-      <c r="C138" s="141" t="s">
-        <v>83</v>
-      </c>
-      <c r="D138" s="97"/>
+      <c r="D138" s="141" t="s">
+        <v>81</v>
+      </c>
       <c r="E138" s="97"/>
       <c r="F138" s="97"/>
       <c r="G138" s="97"/>
@@ -15767,11 +15651,11 @@
       <c r="I138" s="97"/>
       <c r="J138" s="97"/>
       <c r="K138" s="97"/>
-      <c r="L138" s="142"/>
-      <c r="M138" s="143" t="s">
-        <v>84</v>
-      </c>
-      <c r="N138" s="144"/>
+      <c r="L138" s="97"/>
+      <c r="M138" s="142"/>
+      <c r="N138" s="143" t="s">
+        <v>82</v>
+      </c>
       <c r="O138" s="144"/>
       <c r="P138" s="144"/>
       <c r="Q138" s="144"/>
@@ -15779,18 +15663,18 @@
       <c r="S138" s="144"/>
       <c r="T138" s="144"/>
       <c r="U138" s="144"/>
-      <c r="V138" s="145"/>
-      <c r="W138" s="143"/>
-      <c r="X138" s="146"/>
+      <c r="V138" s="144"/>
+      <c r="W138" s="145"/>
+      <c r="X138" s="143"/>
       <c r="Y138" s="146"/>
       <c r="Z138" s="146"/>
-      <c r="AA138" s="144"/>
+      <c r="AA138" s="146"/>
       <c r="AB138" s="144"/>
       <c r="AC138" s="144"/>
       <c r="AD138" s="144"/>
-      <c r="AE138" s="146"/>
+      <c r="AE138" s="144"/>
       <c r="AF138" s="146"/>
-      <c r="AG138" s="144"/>
+      <c r="AG138" s="146"/>
       <c r="AH138" s="144"/>
       <c r="AI138" s="144"/>
       <c r="AJ138" s="144"/>
@@ -15804,15 +15688,14 @@
       <c r="AR138" s="144"/>
       <c r="AS138" s="144"/>
       <c r="AT138" s="144"/>
-      <c r="AU138" s="145"/>
-      <c r="AV138" s="19"/>
+      <c r="AU138" s="144"/>
+      <c r="AV138" s="145"/>
       <c r="AW138" s="20"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
-      <c r="B139" s="147"/>
-      <c r="C139" s="148"/>
-      <c r="D139" s="149"/>
+      <c r="C139" s="147"/>
+      <c r="D139" s="148"/>
       <c r="E139" s="149"/>
       <c r="F139" s="149"/>
       <c r="G139" s="149"/>
@@ -15820,9 +15703,9 @@
       <c r="I139" s="149"/>
       <c r="J139" s="149"/>
       <c r="K139" s="149"/>
-      <c r="L139" s="150"/>
-      <c r="M139" s="148"/>
-      <c r="N139" s="149"/>
+      <c r="L139" s="149"/>
+      <c r="M139" s="150"/>
+      <c r="N139" s="148"/>
       <c r="O139" s="149"/>
       <c r="P139" s="149"/>
       <c r="Q139" s="149"/>
@@ -15830,18 +15713,18 @@
       <c r="S139" s="149"/>
       <c r="T139" s="149"/>
       <c r="U139" s="149"/>
-      <c r="V139" s="150"/>
-      <c r="W139" s="148"/>
-      <c r="X139" s="151"/>
+      <c r="V139" s="149"/>
+      <c r="W139" s="150"/>
+      <c r="X139" s="148"/>
       <c r="Y139" s="151"/>
       <c r="Z139" s="151"/>
-      <c r="AA139" s="149"/>
+      <c r="AA139" s="151"/>
       <c r="AB139" s="149"/>
       <c r="AC139" s="149"/>
       <c r="AD139" s="149"/>
-      <c r="AE139" s="151"/>
+      <c r="AE139" s="149"/>
       <c r="AF139" s="151"/>
-      <c r="AG139" s="149"/>
+      <c r="AG139" s="151"/>
       <c r="AH139" s="149"/>
       <c r="AI139" s="149"/>
       <c r="AJ139" s="149"/>
@@ -15855,15 +15738,14 @@
       <c r="AR139" s="149"/>
       <c r="AS139" s="149"/>
       <c r="AT139" s="149"/>
-      <c r="AU139" s="150"/>
-      <c r="AV139" s="19"/>
+      <c r="AU139" s="149"/>
+      <c r="AV139" s="150"/>
       <c r="AW139" s="20"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="0"/>
-      <c r="B140" s="152"/>
-      <c r="C140" s="153"/>
-      <c r="D140" s="154"/>
+      <c r="C140" s="152"/>
+      <c r="D140" s="153"/>
       <c r="E140" s="154"/>
       <c r="F140" s="154"/>
       <c r="G140" s="154"/>
@@ -15871,9 +15753,9 @@
       <c r="I140" s="154"/>
       <c r="J140" s="154"/>
       <c r="K140" s="154"/>
-      <c r="L140" s="155"/>
-      <c r="M140" s="156"/>
-      <c r="N140" s="157"/>
+      <c r="L140" s="154"/>
+      <c r="M140" s="155"/>
+      <c r="N140" s="156"/>
       <c r="O140" s="157"/>
       <c r="P140" s="157"/>
       <c r="Q140" s="157"/>
@@ -15881,18 +15763,18 @@
       <c r="S140" s="157"/>
       <c r="T140" s="157"/>
       <c r="U140" s="157"/>
-      <c r="V140" s="158"/>
-      <c r="W140" s="156"/>
-      <c r="X140" s="159"/>
+      <c r="V140" s="157"/>
+      <c r="W140" s="158"/>
+      <c r="X140" s="156"/>
       <c r="Y140" s="159"/>
       <c r="Z140" s="159"/>
-      <c r="AA140" s="157"/>
+      <c r="AA140" s="159"/>
       <c r="AB140" s="157"/>
       <c r="AC140" s="157"/>
       <c r="AD140" s="157"/>
-      <c r="AE140" s="159"/>
+      <c r="AE140" s="157"/>
       <c r="AF140" s="159"/>
-      <c r="AG140" s="157"/>
+      <c r="AG140" s="159"/>
       <c r="AH140" s="157"/>
       <c r="AI140" s="157"/>
       <c r="AJ140" s="157"/>
@@ -15906,16 +15788,16 @@
       <c r="AR140" s="157"/>
       <c r="AS140" s="157"/>
       <c r="AT140" s="157"/>
-      <c r="AU140" s="160"/>
-      <c r="AV140" s="0"/>
+      <c r="AU140" s="157"/>
+      <c r="AV140" s="160"/>
       <c r="AW140" s="20"/>
       <c r="AX140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="0"/>
-      <c r="B141" s="137"/>
-      <c r="C141" s="161"/>
-      <c r="D141" s="19"/>
+      <c r="B141" s="28"/>
+      <c r="C141" s="137"/>
+      <c r="D141" s="161"/>
       <c r="E141" s="19"/>
       <c r="F141" s="19"/>
       <c r="G141" s="19"/>
@@ -15935,16 +15817,16 @@
       <c r="U141" s="19"/>
       <c r="V141" s="19"/>
       <c r="W141" s="19"/>
-      <c r="X141" s="137"/>
+      <c r="X141" s="19"/>
       <c r="Y141" s="137"/>
       <c r="Z141" s="137"/>
-      <c r="AA141" s="19"/>
+      <c r="AA141" s="137"/>
       <c r="AB141" s="19"/>
       <c r="AC141" s="19"/>
       <c r="AD141" s="19"/>
-      <c r="AE141" s="137"/>
+      <c r="AE141" s="19"/>
       <c r="AF141" s="137"/>
-      <c r="AG141" s="19"/>
+      <c r="AG141" s="137"/>
       <c r="AH141" s="19"/>
       <c r="AI141" s="19"/>
       <c r="AJ141" s="19"/>
@@ -15958,16 +15840,16 @@
       <c r="AR141" s="19"/>
       <c r="AS141" s="19"/>
       <c r="AT141" s="19"/>
-      <c r="AV141" s="0"/>
+      <c r="AU141" s="19"/>
       <c r="AW141" s="20"/>
       <c r="AX141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="0"/>
-      <c r="B142" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C142" s="19"/>
+      <c r="B142" s="28"/>
+      <c r="C142" s="19" t="s">
+        <v>83</v>
+      </c>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
       <c r="F142" s="19"/>
@@ -15986,17 +15868,17 @@
       <c r="S142" s="19"/>
       <c r="T142" s="19"/>
       <c r="U142" s="19"/>
-      <c r="V142" s="137"/>
+      <c r="V142" s="19"/>
       <c r="W142" s="137"/>
       <c r="X142" s="137"/>
       <c r="Y142" s="137"/>
-      <c r="Z142" s="19"/>
+      <c r="Z142" s="137"/>
       <c r="AA142" s="19"/>
       <c r="AB142" s="19"/>
       <c r="AC142" s="19"/>
-      <c r="AD142" s="137"/>
+      <c r="AD142" s="19"/>
       <c r="AE142" s="137"/>
-      <c r="AF142" s="19"/>
+      <c r="AF142" s="137"/>
       <c r="AG142" s="19"/>
       <c r="AH142" s="19"/>
       <c r="AI142" s="19"/>
@@ -16011,19 +15893,19 @@
       <c r="AR142" s="19"/>
       <c r="AS142" s="19"/>
       <c r="AT142" s="19"/>
-      <c r="AV142" s="0"/>
+      <c r="AU142" s="19"/>
       <c r="AW142" s="20"/>
       <c r="AX142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="0"/>
-      <c r="B143" s="138" t="s">
+      <c r="B143" s="28"/>
+      <c r="C143" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C143" s="72" t="s">
+      <c r="D143" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="D143" s="72"/>
       <c r="E143" s="72"/>
       <c r="F143" s="72"/>
       <c r="G143" s="72"/>
@@ -16032,10 +15914,10 @@
       <c r="J143" s="72"/>
       <c r="K143" s="72"/>
       <c r="L143" s="72"/>
-      <c r="M143" s="139" t="s">
+      <c r="M143" s="72"/>
+      <c r="N143" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="N143" s="139"/>
       <c r="O143" s="139"/>
       <c r="P143" s="139"/>
       <c r="Q143" s="139"/>
@@ -16044,10 +15926,10 @@
       <c r="T143" s="139"/>
       <c r="U143" s="139"/>
       <c r="V143" s="139"/>
-      <c r="W143" s="73" t="s">
+      <c r="W143" s="139"/>
+      <c r="X143" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="X143" s="73"/>
       <c r="Y143" s="73"/>
       <c r="Z143" s="73"/>
       <c r="AA143" s="73"/>
@@ -16071,19 +15953,19 @@
       <c r="AS143" s="73"/>
       <c r="AT143" s="73"/>
       <c r="AU143" s="73"/>
-      <c r="AV143" s="0"/>
+      <c r="AV143" s="73"/>
       <c r="AW143" s="20"/>
       <c r="AX143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="0"/>
-      <c r="B144" s="140" t="n">
+      <c r="B144" s="28"/>
+      <c r="C144" s="140" t="n">
         <v>1</v>
       </c>
-      <c r="C144" s="141" t="s">
-        <v>86</v>
-      </c>
-      <c r="D144" s="97"/>
+      <c r="D144" s="141" t="s">
+        <v>84</v>
+      </c>
       <c r="E144" s="97"/>
       <c r="F144" s="97"/>
       <c r="G144" s="97"/>
@@ -16091,11 +15973,11 @@
       <c r="I144" s="97"/>
       <c r="J144" s="97"/>
       <c r="K144" s="97"/>
-      <c r="L144" s="142"/>
-      <c r="M144" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="N144" s="144"/>
+      <c r="L144" s="97"/>
+      <c r="M144" s="142"/>
+      <c r="N144" s="143" t="s">
+        <v>85</v>
+      </c>
       <c r="O144" s="144"/>
       <c r="P144" s="144"/>
       <c r="Q144" s="144"/>
@@ -16103,18 +15985,18 @@
       <c r="S144" s="144"/>
       <c r="T144" s="144"/>
       <c r="U144" s="144"/>
-      <c r="V144" s="145"/>
-      <c r="W144" s="143"/>
-      <c r="X144" s="146"/>
+      <c r="V144" s="144"/>
+      <c r="W144" s="145"/>
+      <c r="X144" s="143"/>
       <c r="Y144" s="146"/>
       <c r="Z144" s="146"/>
-      <c r="AA144" s="144"/>
+      <c r="AA144" s="146"/>
       <c r="AB144" s="144"/>
       <c r="AC144" s="144"/>
       <c r="AD144" s="144"/>
-      <c r="AE144" s="146"/>
+      <c r="AE144" s="144"/>
       <c r="AF144" s="146"/>
-      <c r="AG144" s="144"/>
+      <c r="AG144" s="146"/>
       <c r="AH144" s="144"/>
       <c r="AI144" s="144"/>
       <c r="AJ144" s="144"/>
@@ -16128,16 +16010,20 @@
       <c r="AR144" s="144"/>
       <c r="AS144" s="144"/>
       <c r="AT144" s="144"/>
-      <c r="AU144" s="145"/>
-      <c r="AV144" s="0"/>
+      <c r="AU144" s="144"/>
+      <c r="AV144" s="145"/>
       <c r="AW144" s="20"/>
       <c r="AX144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="0"/>
-      <c r="B145" s="147"/>
-      <c r="C145" s="148"/>
-      <c r="D145" s="149"/>
+      <c r="B145" s="28"/>
+      <c r="C145" s="140" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" s="148" t="s">
+        <v>86</v>
+      </c>
       <c r="E145" s="149"/>
       <c r="F145" s="149"/>
       <c r="G145" s="149"/>
@@ -16145,9 +16031,11 @@
       <c r="I145" s="149"/>
       <c r="J145" s="149"/>
       <c r="K145" s="149"/>
-      <c r="L145" s="150"/>
-      <c r="M145" s="148"/>
-      <c r="N145" s="149"/>
+      <c r="L145" s="149"/>
+      <c r="M145" s="150"/>
+      <c r="N145" s="143" t="s">
+        <v>85</v>
+      </c>
       <c r="O145" s="149"/>
       <c r="P145" s="149"/>
       <c r="Q145" s="149"/>
@@ -16155,18 +16043,18 @@
       <c r="S145" s="149"/>
       <c r="T145" s="149"/>
       <c r="U145" s="149"/>
-      <c r="V145" s="150"/>
-      <c r="W145" s="148"/>
-      <c r="X145" s="151"/>
+      <c r="V145" s="149"/>
+      <c r="W145" s="150"/>
+      <c r="X145" s="148"/>
       <c r="Y145" s="151"/>
       <c r="Z145" s="151"/>
-      <c r="AA145" s="149"/>
+      <c r="AA145" s="151"/>
       <c r="AB145" s="149"/>
       <c r="AC145" s="149"/>
       <c r="AD145" s="149"/>
-      <c r="AE145" s="151"/>
+      <c r="AE145" s="149"/>
       <c r="AF145" s="151"/>
-      <c r="AG145" s="149"/>
+      <c r="AG145" s="151"/>
       <c r="AH145" s="149"/>
       <c r="AI145" s="149"/>
       <c r="AJ145" s="149"/>
@@ -16180,17 +16068,21 @@
       <c r="AR145" s="149"/>
       <c r="AS145" s="149"/>
       <c r="AT145" s="149"/>
-      <c r="AU145" s="150"/>
-      <c r="AV145" s="0"/>
+      <c r="AU145" s="149"/>
+      <c r="AV145" s="150"/>
       <c r="AW145" s="20"/>
       <c r="AX145" s="0"/>
       <c r="AY145" s="162"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="0"/>
-      <c r="B146" s="152"/>
-      <c r="C146" s="153"/>
-      <c r="D146" s="154"/>
+      <c r="B146" s="28"/>
+      <c r="C146" s="140" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" s="153" t="s">
+        <v>87</v>
+      </c>
       <c r="E146" s="154"/>
       <c r="F146" s="154"/>
       <c r="G146" s="154"/>
@@ -16198,9 +16090,11 @@
       <c r="I146" s="154"/>
       <c r="J146" s="154"/>
       <c r="K146" s="154"/>
-      <c r="L146" s="155"/>
-      <c r="M146" s="156"/>
-      <c r="N146" s="157"/>
+      <c r="L146" s="154"/>
+      <c r="M146" s="155"/>
+      <c r="N146" s="143" t="s">
+        <v>85</v>
+      </c>
       <c r="O146" s="157"/>
       <c r="P146" s="157"/>
       <c r="Q146" s="157"/>
@@ -16208,18 +16102,18 @@
       <c r="S146" s="157"/>
       <c r="T146" s="157"/>
       <c r="U146" s="157"/>
-      <c r="V146" s="158"/>
-      <c r="W146" s="156"/>
-      <c r="X146" s="159"/>
+      <c r="V146" s="157"/>
+      <c r="W146" s="158"/>
+      <c r="X146" s="156"/>
       <c r="Y146" s="159"/>
       <c r="Z146" s="159"/>
-      <c r="AA146" s="157"/>
+      <c r="AA146" s="159"/>
       <c r="AB146" s="157"/>
       <c r="AC146" s="157"/>
       <c r="AD146" s="157"/>
-      <c r="AE146" s="159"/>
+      <c r="AE146" s="157"/>
       <c r="AF146" s="159"/>
-      <c r="AG146" s="157"/>
+      <c r="AG146" s="159"/>
       <c r="AH146" s="157"/>
       <c r="AI146" s="157"/>
       <c r="AJ146" s="157"/>
@@ -16233,61 +16127,67 @@
       <c r="AR146" s="157"/>
       <c r="AS146" s="157"/>
       <c r="AT146" s="157"/>
-      <c r="AU146" s="160"/>
-      <c r="AV146" s="0"/>
+      <c r="AU146" s="157"/>
+      <c r="AV146" s="160"/>
       <c r="AW146" s="20"/>
       <c r="AX146" s="0"/>
       <c r="AY146" s="162"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="0"/>
-      <c r="B147" s="0"/>
-      <c r="C147" s="0"/>
-      <c r="D147" s="0"/>
-      <c r="E147" s="0"/>
-      <c r="F147" s="0"/>
-      <c r="G147" s="0"/>
-      <c r="H147" s="0"/>
-      <c r="I147" s="0"/>
-      <c r="J147" s="0"/>
-      <c r="K147" s="0"/>
-      <c r="L147" s="0"/>
-      <c r="M147" s="0"/>
-      <c r="N147" s="0"/>
-      <c r="O147" s="0"/>
-      <c r="P147" s="0"/>
-      <c r="Q147" s="0"/>
-      <c r="R147" s="0"/>
-      <c r="S147" s="0"/>
-      <c r="T147" s="0"/>
-      <c r="U147" s="0"/>
-      <c r="V147" s="0"/>
-      <c r="W147" s="0"/>
-      <c r="X147" s="0"/>
-      <c r="Y147" s="0"/>
-      <c r="Z147" s="0"/>
-      <c r="AA147" s="0"/>
-      <c r="AB147" s="0"/>
-      <c r="AC147" s="0"/>
-      <c r="AD147" s="0"/>
-      <c r="AE147" s="0"/>
-      <c r="AF147" s="0"/>
-      <c r="AG147" s="0"/>
-      <c r="AH147" s="0"/>
-      <c r="AI147" s="0"/>
-      <c r="AJ147" s="0"/>
-      <c r="AK147" s="0"/>
-      <c r="AL147" s="0"/>
-      <c r="AM147" s="0"/>
-      <c r="AN147" s="0"/>
-      <c r="AO147" s="0"/>
-      <c r="AP147" s="0"/>
-      <c r="AQ147" s="0"/>
-      <c r="AR147" s="0"/>
-      <c r="AS147" s="0"/>
-      <c r="AT147" s="0"/>
-      <c r="AU147" s="0"/>
-      <c r="AV147" s="0"/>
+      <c r="B147" s="28"/>
+      <c r="C147" s="140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D147" s="153" t="s">
+        <v>88</v>
+      </c>
+      <c r="E147" s="154"/>
+      <c r="F147" s="154"/>
+      <c r="G147" s="154"/>
+      <c r="H147" s="154"/>
+      <c r="I147" s="154"/>
+      <c r="J147" s="154"/>
+      <c r="K147" s="154"/>
+      <c r="L147" s="154"/>
+      <c r="M147" s="155"/>
+      <c r="N147" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="O147" s="157"/>
+      <c r="P147" s="157"/>
+      <c r="Q147" s="157"/>
+      <c r="R147" s="157"/>
+      <c r="S147" s="157"/>
+      <c r="T147" s="157"/>
+      <c r="U147" s="157"/>
+      <c r="V147" s="157"/>
+      <c r="W147" s="158"/>
+      <c r="X147" s="156"/>
+      <c r="Y147" s="159"/>
+      <c r="Z147" s="159"/>
+      <c r="AA147" s="159"/>
+      <c r="AB147" s="157"/>
+      <c r="AC147" s="157"/>
+      <c r="AD147" s="157"/>
+      <c r="AE147" s="157"/>
+      <c r="AF147" s="159"/>
+      <c r="AG147" s="159"/>
+      <c r="AH147" s="157"/>
+      <c r="AI147" s="157"/>
+      <c r="AJ147" s="157"/>
+      <c r="AK147" s="157"/>
+      <c r="AL147" s="157"/>
+      <c r="AM147" s="157"/>
+      <c r="AN147" s="157"/>
+      <c r="AO147" s="157"/>
+      <c r="AP147" s="157"/>
+      <c r="AQ147" s="157"/>
+      <c r="AR147" s="157"/>
+      <c r="AS147" s="157"/>
+      <c r="AT147" s="157"/>
+      <c r="AU147" s="157"/>
+      <c r="AV147" s="160"/>
       <c r="AW147" s="20"/>
       <c r="AX147" s="0"/>
       <c r="AY147" s="162"/>
@@ -16295,7 +16195,7 @@
     <row r="148" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="0"/>
       <c r="C148" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D148" s="19"/>
       <c r="E148" s="137"/>
@@ -16631,51 +16531,49 @@
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="0"/>
       <c r="D154" s="19"/>
-      <c r="E154" s="179" t="n">
-        <v>2</v>
-      </c>
+      <c r="E154" s="179"/>
       <c r="F154" s="180"/>
-      <c r="G154" s="181"/>
-      <c r="H154" s="181"/>
-      <c r="I154" s="182"/>
-      <c r="J154" s="182"/>
-      <c r="K154" s="182"/>
-      <c r="L154" s="182"/>
-      <c r="M154" s="183"/>
+      <c r="G154" s="180"/>
+      <c r="H154" s="180"/>
+      <c r="I154" s="181"/>
+      <c r="J154" s="181"/>
+      <c r="K154" s="181"/>
+      <c r="L154" s="181"/>
+      <c r="M154" s="181"/>
       <c r="N154" s="180"/>
-      <c r="O154" s="181"/>
-      <c r="P154" s="181"/>
-      <c r="Q154" s="182"/>
-      <c r="R154" s="182"/>
-      <c r="S154" s="182"/>
-      <c r="T154" s="182"/>
-      <c r="U154" s="182"/>
-      <c r="V154" s="184"/>
-      <c r="W154" s="184"/>
-      <c r="X154" s="184"/>
-      <c r="Y154" s="184"/>
-      <c r="Z154" s="184"/>
-      <c r="AA154" s="184"/>
-      <c r="AB154" s="184"/>
-      <c r="AC154" s="184"/>
-      <c r="AD154" s="184"/>
-      <c r="AE154" s="184"/>
-      <c r="AF154" s="184"/>
-      <c r="AG154" s="184"/>
-      <c r="AH154" s="184"/>
-      <c r="AI154" s="185"/>
-      <c r="AJ154" s="186"/>
-      <c r="AK154" s="187"/>
-      <c r="AL154" s="187"/>
-      <c r="AM154" s="187"/>
-      <c r="AN154" s="187"/>
-      <c r="AO154" s="187"/>
-      <c r="AP154" s="187"/>
-      <c r="AQ154" s="187"/>
-      <c r="AR154" s="187"/>
-      <c r="AS154" s="187"/>
-      <c r="AT154" s="187"/>
-      <c r="AU154" s="188"/>
+      <c r="O154" s="180"/>
+      <c r="P154" s="180"/>
+      <c r="Q154" s="181"/>
+      <c r="R154" s="181"/>
+      <c r="S154" s="181"/>
+      <c r="T154" s="181"/>
+      <c r="U154" s="181"/>
+      <c r="V154" s="182"/>
+      <c r="W154" s="182"/>
+      <c r="X154" s="182"/>
+      <c r="Y154" s="182"/>
+      <c r="Z154" s="182"/>
+      <c r="AA154" s="182"/>
+      <c r="AB154" s="182"/>
+      <c r="AC154" s="182"/>
+      <c r="AD154" s="182"/>
+      <c r="AE154" s="182"/>
+      <c r="AF154" s="182"/>
+      <c r="AG154" s="182"/>
+      <c r="AH154" s="182"/>
+      <c r="AI154" s="182"/>
+      <c r="AJ154" s="183"/>
+      <c r="AK154" s="184"/>
+      <c r="AL154" s="184"/>
+      <c r="AM154" s="184"/>
+      <c r="AN154" s="184"/>
+      <c r="AO154" s="184"/>
+      <c r="AP154" s="184"/>
+      <c r="AQ154" s="184"/>
+      <c r="AR154" s="184"/>
+      <c r="AS154" s="184"/>
+      <c r="AT154" s="184"/>
+      <c r="AU154" s="184"/>
       <c r="AV154" s="19"/>
       <c r="AW154" s="20"/>
       <c r="AX154" s="0"/>
@@ -16683,51 +16581,49 @@
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="0"/>
       <c r="D155" s="19"/>
-      <c r="E155" s="189" t="n">
-        <v>3</v>
-      </c>
-      <c r="F155" s="190"/>
-      <c r="G155" s="191"/>
-      <c r="H155" s="191"/>
-      <c r="I155" s="192"/>
-      <c r="J155" s="192"/>
-      <c r="K155" s="192"/>
-      <c r="L155" s="192"/>
-      <c r="M155" s="193"/>
-      <c r="N155" s="194"/>
-      <c r="O155" s="194"/>
-      <c r="P155" s="194"/>
-      <c r="Q155" s="194"/>
-      <c r="R155" s="194"/>
-      <c r="S155" s="194"/>
-      <c r="T155" s="194"/>
-      <c r="U155" s="194"/>
-      <c r="V155" s="194"/>
-      <c r="W155" s="194"/>
-      <c r="X155" s="194"/>
-      <c r="Y155" s="194"/>
-      <c r="Z155" s="194"/>
-      <c r="AA155" s="194"/>
-      <c r="AB155" s="194"/>
-      <c r="AC155" s="194"/>
-      <c r="AD155" s="194"/>
-      <c r="AE155" s="194"/>
-      <c r="AF155" s="194"/>
-      <c r="AG155" s="194"/>
-      <c r="AH155" s="194"/>
-      <c r="AI155" s="194"/>
-      <c r="AJ155" s="195"/>
-      <c r="AK155" s="196"/>
-      <c r="AL155" s="196"/>
-      <c r="AM155" s="196"/>
-      <c r="AN155" s="196"/>
-      <c r="AO155" s="196"/>
-      <c r="AP155" s="196"/>
-      <c r="AQ155" s="196"/>
-      <c r="AR155" s="196"/>
-      <c r="AS155" s="196"/>
-      <c r="AT155" s="196"/>
-      <c r="AU155" s="197"/>
+      <c r="E155" s="179"/>
+      <c r="F155" s="180"/>
+      <c r="G155" s="180"/>
+      <c r="H155" s="180"/>
+      <c r="I155" s="181"/>
+      <c r="J155" s="181"/>
+      <c r="K155" s="181"/>
+      <c r="L155" s="181"/>
+      <c r="M155" s="181"/>
+      <c r="N155" s="185"/>
+      <c r="O155" s="185"/>
+      <c r="P155" s="185"/>
+      <c r="Q155" s="185"/>
+      <c r="R155" s="185"/>
+      <c r="S155" s="185"/>
+      <c r="T155" s="185"/>
+      <c r="U155" s="185"/>
+      <c r="V155" s="185"/>
+      <c r="W155" s="185"/>
+      <c r="X155" s="185"/>
+      <c r="Y155" s="185"/>
+      <c r="Z155" s="185"/>
+      <c r="AA155" s="185"/>
+      <c r="AB155" s="185"/>
+      <c r="AC155" s="185"/>
+      <c r="AD155" s="185"/>
+      <c r="AE155" s="185"/>
+      <c r="AF155" s="185"/>
+      <c r="AG155" s="185"/>
+      <c r="AH155" s="185"/>
+      <c r="AI155" s="185"/>
+      <c r="AJ155" s="186"/>
+      <c r="AK155" s="184"/>
+      <c r="AL155" s="184"/>
+      <c r="AM155" s="184"/>
+      <c r="AN155" s="184"/>
+      <c r="AO155" s="184"/>
+      <c r="AP155" s="184"/>
+      <c r="AQ155" s="184"/>
+      <c r="AR155" s="184"/>
+      <c r="AS155" s="184"/>
+      <c r="AT155" s="184"/>
+      <c r="AU155" s="184"/>
       <c r="AV155" s="19"/>
       <c r="AW155" s="20"/>
       <c r="AX155" s="0"/>
@@ -16735,51 +16631,49 @@
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="0"/>
       <c r="D156" s="19"/>
-      <c r="E156" s="179" t="n">
-        <v>4</v>
-      </c>
+      <c r="E156" s="179"/>
       <c r="F156" s="180"/>
-      <c r="G156" s="181"/>
-      <c r="H156" s="181"/>
-      <c r="I156" s="182"/>
-      <c r="J156" s="182"/>
-      <c r="K156" s="182"/>
-      <c r="L156" s="182"/>
-      <c r="M156" s="183"/>
+      <c r="G156" s="180"/>
+      <c r="H156" s="180"/>
+      <c r="I156" s="181"/>
+      <c r="J156" s="181"/>
+      <c r="K156" s="181"/>
+      <c r="L156" s="181"/>
+      <c r="M156" s="181"/>
       <c r="N156" s="180"/>
-      <c r="O156" s="181"/>
-      <c r="P156" s="181"/>
-      <c r="Q156" s="182"/>
-      <c r="R156" s="182"/>
-      <c r="S156" s="182"/>
-      <c r="T156" s="182"/>
-      <c r="U156" s="182"/>
-      <c r="V156" s="184"/>
-      <c r="W156" s="184"/>
-      <c r="X156" s="184"/>
-      <c r="Y156" s="184"/>
-      <c r="Z156" s="184"/>
-      <c r="AA156" s="184"/>
-      <c r="AB156" s="184"/>
-      <c r="AC156" s="184"/>
-      <c r="AD156" s="184"/>
-      <c r="AE156" s="184"/>
-      <c r="AF156" s="184"/>
-      <c r="AG156" s="184"/>
-      <c r="AH156" s="184"/>
-      <c r="AI156" s="185"/>
-      <c r="AJ156" s="186"/>
-      <c r="AK156" s="187"/>
-      <c r="AL156" s="187"/>
-      <c r="AM156" s="187"/>
-      <c r="AN156" s="187"/>
-      <c r="AO156" s="187"/>
-      <c r="AP156" s="187"/>
-      <c r="AQ156" s="187"/>
-      <c r="AR156" s="187"/>
-      <c r="AS156" s="187"/>
-      <c r="AT156" s="187"/>
-      <c r="AU156" s="188"/>
+      <c r="O156" s="180"/>
+      <c r="P156" s="180"/>
+      <c r="Q156" s="181"/>
+      <c r="R156" s="181"/>
+      <c r="S156" s="181"/>
+      <c r="T156" s="181"/>
+      <c r="U156" s="181"/>
+      <c r="V156" s="182"/>
+      <c r="W156" s="182"/>
+      <c r="X156" s="182"/>
+      <c r="Y156" s="182"/>
+      <c r="Z156" s="182"/>
+      <c r="AA156" s="182"/>
+      <c r="AB156" s="182"/>
+      <c r="AC156" s="182"/>
+      <c r="AD156" s="182"/>
+      <c r="AE156" s="182"/>
+      <c r="AF156" s="182"/>
+      <c r="AG156" s="182"/>
+      <c r="AH156" s="182"/>
+      <c r="AI156" s="182"/>
+      <c r="AJ156" s="183"/>
+      <c r="AK156" s="184"/>
+      <c r="AL156" s="184"/>
+      <c r="AM156" s="184"/>
+      <c r="AN156" s="184"/>
+      <c r="AO156" s="184"/>
+      <c r="AP156" s="184"/>
+      <c r="AQ156" s="184"/>
+      <c r="AR156" s="184"/>
+      <c r="AS156" s="184"/>
+      <c r="AT156" s="184"/>
+      <c r="AU156" s="184"/>
       <c r="AV156" s="19"/>
       <c r="AW156" s="20"/>
       <c r="AX156" s="0"/>
@@ -16787,51 +16681,49 @@
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="0"/>
       <c r="D157" s="19"/>
-      <c r="E157" s="189" t="n">
-        <v>5</v>
-      </c>
-      <c r="F157" s="190"/>
-      <c r="G157" s="191"/>
-      <c r="H157" s="191"/>
-      <c r="I157" s="192"/>
-      <c r="J157" s="192"/>
-      <c r="K157" s="192"/>
-      <c r="L157" s="192"/>
-      <c r="M157" s="193"/>
-      <c r="N157" s="194"/>
-      <c r="O157" s="194"/>
-      <c r="P157" s="194"/>
-      <c r="Q157" s="194"/>
-      <c r="R157" s="194"/>
-      <c r="S157" s="194"/>
-      <c r="T157" s="194"/>
-      <c r="U157" s="194"/>
-      <c r="V157" s="194"/>
-      <c r="W157" s="194"/>
-      <c r="X157" s="194"/>
-      <c r="Y157" s="194"/>
-      <c r="Z157" s="194"/>
-      <c r="AA157" s="194"/>
-      <c r="AB157" s="194"/>
-      <c r="AC157" s="194"/>
-      <c r="AD157" s="194"/>
-      <c r="AE157" s="194"/>
-      <c r="AF157" s="194"/>
-      <c r="AG157" s="194"/>
-      <c r="AH157" s="194"/>
-      <c r="AI157" s="194"/>
-      <c r="AJ157" s="195"/>
-      <c r="AK157" s="196"/>
-      <c r="AL157" s="196"/>
-      <c r="AM157" s="196"/>
-      <c r="AN157" s="196"/>
-      <c r="AO157" s="196"/>
-      <c r="AP157" s="196"/>
-      <c r="AQ157" s="196"/>
-      <c r="AR157" s="196"/>
-      <c r="AS157" s="196"/>
-      <c r="AT157" s="196"/>
-      <c r="AU157" s="197"/>
+      <c r="E157" s="179"/>
+      <c r="F157" s="180"/>
+      <c r="G157" s="180"/>
+      <c r="H157" s="180"/>
+      <c r="I157" s="181"/>
+      <c r="J157" s="181"/>
+      <c r="K157" s="181"/>
+      <c r="L157" s="181"/>
+      <c r="M157" s="181"/>
+      <c r="N157" s="185"/>
+      <c r="O157" s="185"/>
+      <c r="P157" s="185"/>
+      <c r="Q157" s="185"/>
+      <c r="R157" s="185"/>
+      <c r="S157" s="185"/>
+      <c r="T157" s="185"/>
+      <c r="U157" s="185"/>
+      <c r="V157" s="185"/>
+      <c r="W157" s="185"/>
+      <c r="X157" s="185"/>
+      <c r="Y157" s="185"/>
+      <c r="Z157" s="185"/>
+      <c r="AA157" s="185"/>
+      <c r="AB157" s="185"/>
+      <c r="AC157" s="185"/>
+      <c r="AD157" s="185"/>
+      <c r="AE157" s="185"/>
+      <c r="AF157" s="185"/>
+      <c r="AG157" s="185"/>
+      <c r="AH157" s="185"/>
+      <c r="AI157" s="185"/>
+      <c r="AJ157" s="186"/>
+      <c r="AK157" s="184"/>
+      <c r="AL157" s="184"/>
+      <c r="AM157" s="184"/>
+      <c r="AN157" s="184"/>
+      <c r="AO157" s="184"/>
+      <c r="AP157" s="184"/>
+      <c r="AQ157" s="184"/>
+      <c r="AR157" s="184"/>
+      <c r="AS157" s="184"/>
+      <c r="AT157" s="184"/>
+      <c r="AU157" s="184"/>
       <c r="AV157" s="19"/>
       <c r="AW157" s="20"/>
       <c r="AX157" s="0"/>
@@ -16891,7 +16783,7 @@
       <c r="D159" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="E159" s="198"/>
+      <c r="E159" s="187"/>
       <c r="F159" s="24"/>
       <c r="G159" s="24"/>
       <c r="H159" s="24"/>
@@ -16940,49 +16832,49 @@
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="0"/>
       <c r="D160" s="19"/>
-      <c r="E160" s="199"/>
-      <c r="F160" s="200"/>
-      <c r="G160" s="200"/>
-      <c r="H160" s="200"/>
-      <c r="I160" s="200"/>
-      <c r="J160" s="200"/>
-      <c r="K160" s="200"/>
-      <c r="L160" s="200"/>
-      <c r="M160" s="200"/>
-      <c r="N160" s="200"/>
-      <c r="O160" s="200"/>
-      <c r="P160" s="200"/>
-      <c r="Q160" s="200"/>
-      <c r="R160" s="200"/>
-      <c r="S160" s="200"/>
-      <c r="T160" s="200"/>
-      <c r="U160" s="200"/>
-      <c r="V160" s="200"/>
-      <c r="W160" s="200"/>
-      <c r="X160" s="200"/>
-      <c r="Y160" s="200"/>
-      <c r="Z160" s="200"/>
-      <c r="AA160" s="200"/>
-      <c r="AB160" s="200"/>
-      <c r="AC160" s="200"/>
-      <c r="AD160" s="200"/>
-      <c r="AE160" s="200"/>
-      <c r="AF160" s="200"/>
-      <c r="AG160" s="200"/>
-      <c r="AH160" s="200"/>
-      <c r="AI160" s="200"/>
-      <c r="AJ160" s="200"/>
-      <c r="AK160" s="200"/>
-      <c r="AL160" s="200"/>
-      <c r="AM160" s="200"/>
-      <c r="AN160" s="200"/>
-      <c r="AO160" s="200"/>
-      <c r="AP160" s="200"/>
-      <c r="AQ160" s="200"/>
-      <c r="AR160" s="200"/>
-      <c r="AS160" s="200"/>
-      <c r="AT160" s="200"/>
-      <c r="AU160" s="200"/>
+      <c r="E160" s="188"/>
+      <c r="F160" s="189"/>
+      <c r="G160" s="189"/>
+      <c r="H160" s="189"/>
+      <c r="I160" s="189"/>
+      <c r="J160" s="189"/>
+      <c r="K160" s="189"/>
+      <c r="L160" s="189"/>
+      <c r="M160" s="189"/>
+      <c r="N160" s="189"/>
+      <c r="O160" s="189"/>
+      <c r="P160" s="189"/>
+      <c r="Q160" s="189"/>
+      <c r="R160" s="189"/>
+      <c r="S160" s="189"/>
+      <c r="T160" s="189"/>
+      <c r="U160" s="189"/>
+      <c r="V160" s="189"/>
+      <c r="W160" s="189"/>
+      <c r="X160" s="189"/>
+      <c r="Y160" s="189"/>
+      <c r="Z160" s="189"/>
+      <c r="AA160" s="189"/>
+      <c r="AB160" s="189"/>
+      <c r="AC160" s="189"/>
+      <c r="AD160" s="189"/>
+      <c r="AE160" s="189"/>
+      <c r="AF160" s="189"/>
+      <c r="AG160" s="189"/>
+      <c r="AH160" s="189"/>
+      <c r="AI160" s="189"/>
+      <c r="AJ160" s="189"/>
+      <c r="AK160" s="189"/>
+      <c r="AL160" s="189"/>
+      <c r="AM160" s="189"/>
+      <c r="AN160" s="189"/>
+      <c r="AO160" s="189"/>
+      <c r="AP160" s="189"/>
+      <c r="AQ160" s="189"/>
+      <c r="AR160" s="189"/>
+      <c r="AS160" s="189"/>
+      <c r="AT160" s="189"/>
+      <c r="AU160" s="189"/>
       <c r="AV160" s="19"/>
       <c r="AW160" s="20"/>
       <c r="AX160" s="0"/>
@@ -16990,53 +16882,53 @@
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="0"/>
       <c r="D161" s="19"/>
-      <c r="E161" s="201" t="s">
+      <c r="E161" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="F161" s="201"/>
-      <c r="G161" s="201"/>
-      <c r="H161" s="201"/>
-      <c r="I161" s="201"/>
-      <c r="J161" s="201"/>
-      <c r="K161" s="201"/>
-      <c r="L161" s="202" t="s">
+      <c r="F161" s="190"/>
+      <c r="G161" s="190"/>
+      <c r="H161" s="190"/>
+      <c r="I161" s="190"/>
+      <c r="J161" s="190"/>
+      <c r="K161" s="190"/>
+      <c r="L161" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="M161" s="202"/>
-      <c r="N161" s="202"/>
-      <c r="O161" s="202"/>
-      <c r="P161" s="202"/>
-      <c r="Q161" s="202"/>
-      <c r="R161" s="202"/>
-      <c r="S161" s="202"/>
-      <c r="T161" s="202"/>
-      <c r="U161" s="202"/>
-      <c r="V161" s="202"/>
-      <c r="W161" s="202"/>
-      <c r="X161" s="202"/>
-      <c r="Y161" s="202"/>
-      <c r="Z161" s="202"/>
-      <c r="AA161" s="202"/>
-      <c r="AB161" s="202"/>
-      <c r="AC161" s="202"/>
-      <c r="AD161" s="202"/>
-      <c r="AE161" s="202"/>
-      <c r="AF161" s="202"/>
-      <c r="AG161" s="202"/>
-      <c r="AH161" s="202"/>
-      <c r="AI161" s="202"/>
-      <c r="AJ161" s="202"/>
-      <c r="AK161" s="202"/>
-      <c r="AL161" s="202"/>
-      <c r="AM161" s="202"/>
-      <c r="AN161" s="202"/>
-      <c r="AO161" s="202"/>
-      <c r="AP161" s="202"/>
-      <c r="AQ161" s="202"/>
-      <c r="AR161" s="202"/>
-      <c r="AS161" s="202"/>
-      <c r="AT161" s="202"/>
-      <c r="AU161" s="202"/>
+      <c r="M161" s="191"/>
+      <c r="N161" s="191"/>
+      <c r="O161" s="191"/>
+      <c r="P161" s="191"/>
+      <c r="Q161" s="191"/>
+      <c r="R161" s="191"/>
+      <c r="S161" s="191"/>
+      <c r="T161" s="191"/>
+      <c r="U161" s="191"/>
+      <c r="V161" s="191"/>
+      <c r="W161" s="191"/>
+      <c r="X161" s="191"/>
+      <c r="Y161" s="191"/>
+      <c r="Z161" s="191"/>
+      <c r="AA161" s="191"/>
+      <c r="AB161" s="191"/>
+      <c r="AC161" s="191"/>
+      <c r="AD161" s="191"/>
+      <c r="AE161" s="191"/>
+      <c r="AF161" s="191"/>
+      <c r="AG161" s="191"/>
+      <c r="AH161" s="191"/>
+      <c r="AI161" s="191"/>
+      <c r="AJ161" s="191"/>
+      <c r="AK161" s="191"/>
+      <c r="AL161" s="191"/>
+      <c r="AM161" s="191"/>
+      <c r="AN161" s="191"/>
+      <c r="AO161" s="191"/>
+      <c r="AP161" s="191"/>
+      <c r="AQ161" s="191"/>
+      <c r="AR161" s="191"/>
+      <c r="AS161" s="191"/>
+      <c r="AT161" s="191"/>
+      <c r="AU161" s="191"/>
       <c r="AV161" s="19"/>
       <c r="AW161" s="20"/>
       <c r="AX161" s="0"/>
@@ -17044,19 +16936,19 @@
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="0"/>
       <c r="D162" s="19"/>
-      <c r="E162" s="201" t="s">
-        <v>55</v>
-      </c>
-      <c r="F162" s="201"/>
-      <c r="G162" s="201"/>
-      <c r="H162" s="201"/>
-      <c r="I162" s="201"/>
-      <c r="J162" s="201"/>
-      <c r="K162" s="201"/>
-      <c r="L162" s="203"/>
+      <c r="E162" s="190" t="s">
+        <v>109</v>
+      </c>
+      <c r="F162" s="190"/>
+      <c r="G162" s="190"/>
+      <c r="H162" s="190"/>
+      <c r="I162" s="190"/>
+      <c r="J162" s="190"/>
+      <c r="K162" s="190"/>
+      <c r="L162" s="192"/>
       <c r="M162" s="171"/>
       <c r="N162" s="171" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O162" s="171"/>
       <c r="P162" s="171"/>
@@ -17068,7 +16960,7 @@
       <c r="V162" s="174"/>
       <c r="W162" s="174"/>
       <c r="X162" s="174"/>
-      <c r="Y162" s="204"/>
+      <c r="Y162" s="193"/>
       <c r="Z162" s="174"/>
       <c r="AA162" s="174"/>
       <c r="AB162" s="174"/>
@@ -17098,49 +16990,51 @@
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="0"/>
       <c r="D163" s="19"/>
-      <c r="E163" s="201"/>
-      <c r="F163" s="201"/>
-      <c r="G163" s="201"/>
-      <c r="H163" s="201"/>
-      <c r="I163" s="201"/>
-      <c r="J163" s="201"/>
-      <c r="K163" s="201"/>
-      <c r="L163" s="205"/>
-      <c r="M163" s="192"/>
-      <c r="N163" s="192"/>
-      <c r="O163" s="192"/>
-      <c r="P163" s="192"/>
-      <c r="Q163" s="206"/>
-      <c r="R163" s="206"/>
-      <c r="S163" s="206"/>
-      <c r="T163" s="206"/>
-      <c r="U163" s="206"/>
-      <c r="V163" s="206"/>
-      <c r="W163" s="206"/>
-      <c r="X163" s="206"/>
-      <c r="Y163" s="207"/>
-      <c r="Z163" s="206"/>
-      <c r="AA163" s="206"/>
-      <c r="AB163" s="206"/>
-      <c r="AC163" s="206"/>
-      <c r="AD163" s="206"/>
-      <c r="AE163" s="206"/>
-      <c r="AF163" s="206"/>
-      <c r="AG163" s="206"/>
-      <c r="AH163" s="206"/>
-      <c r="AI163" s="206"/>
-      <c r="AJ163" s="206"/>
-      <c r="AK163" s="206"/>
-      <c r="AL163" s="206"/>
-      <c r="AM163" s="206"/>
-      <c r="AN163" s="206"/>
-      <c r="AO163" s="206"/>
-      <c r="AP163" s="206"/>
-      <c r="AQ163" s="206"/>
-      <c r="AR163" s="206"/>
-      <c r="AS163" s="206"/>
-      <c r="AT163" s="206"/>
-      <c r="AU163" s="208"/>
+      <c r="E163" s="190"/>
+      <c r="F163" s="190"/>
+      <c r="G163" s="190"/>
+      <c r="H163" s="190"/>
+      <c r="I163" s="190"/>
+      <c r="J163" s="190"/>
+      <c r="K163" s="190"/>
+      <c r="L163" s="192"/>
+      <c r="M163" s="171"/>
+      <c r="N163" s="171" t="s">
+        <v>111</v>
+      </c>
+      <c r="O163" s="171"/>
+      <c r="P163" s="171"/>
+      <c r="Q163" s="174"/>
+      <c r="R163" s="174"/>
+      <c r="S163" s="174"/>
+      <c r="T163" s="174"/>
+      <c r="U163" s="174"/>
+      <c r="V163" s="174"/>
+      <c r="W163" s="174"/>
+      <c r="X163" s="174"/>
+      <c r="Y163" s="193"/>
+      <c r="Z163" s="174"/>
+      <c r="AA163" s="174"/>
+      <c r="AB163" s="174"/>
+      <c r="AC163" s="174"/>
+      <c r="AD163" s="174"/>
+      <c r="AE163" s="174"/>
+      <c r="AF163" s="174"/>
+      <c r="AG163" s="174"/>
+      <c r="AH163" s="174"/>
+      <c r="AI163" s="174"/>
+      <c r="AJ163" s="174"/>
+      <c r="AK163" s="174"/>
+      <c r="AL163" s="174"/>
+      <c r="AM163" s="174"/>
+      <c r="AN163" s="174"/>
+      <c r="AO163" s="174"/>
+      <c r="AP163" s="174"/>
+      <c r="AQ163" s="174"/>
+      <c r="AR163" s="174"/>
+      <c r="AS163" s="174"/>
+      <c r="AT163" s="174"/>
+      <c r="AU163" s="175"/>
       <c r="AV163" s="19"/>
       <c r="AW163" s="20"/>
       <c r="AX163" s="0"/>
@@ -17148,7 +17042,7 @@
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="0"/>
       <c r="D164" s="19"/>
-      <c r="E164" s="198"/>
+      <c r="E164" s="188"/>
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
@@ -17197,27 +17091,27 @@
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="0"/>
       <c r="D165" s="164"/>
-      <c r="E165" s="199"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
-      <c r="S165" s="19"/>
-      <c r="T165" s="19"/>
-      <c r="U165" s="19"/>
-      <c r="V165" s="19"/>
-      <c r="W165" s="19"/>
-      <c r="X165" s="19"/>
-      <c r="Y165" s="19"/>
+      <c r="E165" s="187"/>
+      <c r="F165" s="24"/>
+      <c r="G165" s="24"/>
+      <c r="H165" s="24"/>
+      <c r="I165" s="24"/>
+      <c r="J165" s="24"/>
+      <c r="K165" s="24"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="24"/>
+      <c r="N165" s="24"/>
+      <c r="O165" s="24"/>
+      <c r="P165" s="24"/>
+      <c r="Q165" s="24"/>
+      <c r="R165" s="24"/>
+      <c r="S165" s="24"/>
+      <c r="T165" s="24"/>
+      <c r="U165" s="24"/>
+      <c r="V165" s="24"/>
+      <c r="W165" s="24"/>
+      <c r="X165" s="24"/>
+      <c r="Y165" s="24"/>
       <c r="Z165" s="24"/>
       <c r="AA165" s="24"/>
       <c r="AB165" s="24"/>
@@ -17246,7 +17140,7 @@
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="0"/>
       <c r="D166" s="164"/>
-      <c r="E166" s="198"/>
+      <c r="E166" s="164"/>
       <c r="F166" s="24"/>
       <c r="G166" s="24"/>
       <c r="H166" s="24"/>
@@ -17295,7 +17189,7 @@
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="0"/>
       <c r="D167" s="164"/>
-      <c r="E167" s="164"/>
+      <c r="E167" s="187"/>
       <c r="F167" s="24"/>
       <c r="G167" s="24"/>
       <c r="H167" s="24"/>
@@ -17344,102 +17238,108 @@
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="0"/>
       <c r="D168" s="164"/>
-      <c r="E168" s="198"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="24"/>
-      <c r="M168" s="24"/>
-      <c r="N168" s="24"/>
-      <c r="O168" s="24"/>
-      <c r="P168" s="24"/>
-      <c r="Q168" s="24"/>
-      <c r="R168" s="24"/>
-      <c r="S168" s="24"/>
-      <c r="T168" s="24"/>
-      <c r="U168" s="24"/>
-      <c r="V168" s="24"/>
-      <c r="W168" s="24"/>
-      <c r="X168" s="24"/>
-      <c r="Y168" s="24"/>
-      <c r="Z168" s="24"/>
-      <c r="AA168" s="24"/>
-      <c r="AB168" s="24"/>
-      <c r="AC168" s="24"/>
-      <c r="AD168" s="24"/>
-      <c r="AF168" s="24"/>
-      <c r="AG168" s="24"/>
-      <c r="AH168" s="24"/>
-      <c r="AI168" s="24"/>
-      <c r="AJ168" s="24"/>
-      <c r="AK168" s="24"/>
-      <c r="AL168" s="24"/>
-      <c r="AM168" s="24"/>
-      <c r="AN168" s="24"/>
-      <c r="AO168" s="24"/>
-      <c r="AP168" s="24"/>
-      <c r="AQ168" s="24"/>
-      <c r="AR168" s="24"/>
-      <c r="AS168" s="24"/>
-      <c r="AT168" s="24"/>
+      <c r="E168" s="194" t="s">
+        <v>112</v>
+      </c>
+      <c r="F168" s="195"/>
+      <c r="G168" s="195"/>
+      <c r="H168" s="196"/>
+      <c r="I168" s="190" t="s">
+        <v>113</v>
+      </c>
+      <c r="J168" s="190"/>
+      <c r="K168" s="190"/>
+      <c r="L168" s="190"/>
+      <c r="M168" s="190"/>
+      <c r="N168" s="190"/>
+      <c r="O168" s="190"/>
+      <c r="P168" s="190"/>
+      <c r="Q168" s="190"/>
+      <c r="R168" s="190"/>
+      <c r="S168" s="190"/>
+      <c r="T168" s="190"/>
+      <c r="U168" s="190"/>
+      <c r="V168" s="190"/>
+      <c r="W168" s="190"/>
+      <c r="X168" s="190"/>
+      <c r="Y168" s="190"/>
+      <c r="Z168" s="190"/>
+      <c r="AA168" s="190"/>
+      <c r="AB168" s="190"/>
+      <c r="AC168" s="190"/>
+      <c r="AD168" s="190"/>
+      <c r="AE168" s="190"/>
+      <c r="AF168" s="190"/>
+      <c r="AG168" s="190"/>
+      <c r="AH168" s="190"/>
+      <c r="AI168" s="190"/>
+      <c r="AJ168" s="190" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK168" s="190"/>
+      <c r="AL168" s="190"/>
+      <c r="AM168" s="190"/>
+      <c r="AN168" s="190"/>
+      <c r="AO168" s="190"/>
+      <c r="AP168" s="190"/>
+      <c r="AQ168" s="190"/>
+      <c r="AR168" s="190"/>
+      <c r="AS168" s="190"/>
+      <c r="AT168" s="190"/>
       <c r="AU168" s="24"/>
       <c r="AV168" s="19"/>
       <c r="AW168" s="20"/>
-      <c r="AX168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="17"/>
       <c r="D169" s="164"/>
-      <c r="E169" s="209" t="s">
-        <v>110</v>
-      </c>
-      <c r="F169" s="210"/>
-      <c r="G169" s="210"/>
-      <c r="H169" s="211"/>
-      <c r="I169" s="201" t="s">
-        <v>111</v>
-      </c>
-      <c r="J169" s="201"/>
-      <c r="K169" s="201"/>
-      <c r="L169" s="201"/>
-      <c r="M169" s="201"/>
-      <c r="N169" s="201"/>
-      <c r="O169" s="201"/>
-      <c r="P169" s="201"/>
-      <c r="Q169" s="201"/>
-      <c r="R169" s="201"/>
-      <c r="S169" s="201"/>
-      <c r="T169" s="201"/>
-      <c r="U169" s="201"/>
-      <c r="V169" s="201"/>
-      <c r="W169" s="201"/>
-      <c r="X169" s="201"/>
-      <c r="Y169" s="201"/>
-      <c r="Z169" s="201"/>
-      <c r="AA169" s="201"/>
-      <c r="AB169" s="201"/>
-      <c r="AC169" s="201"/>
-      <c r="AD169" s="201"/>
-      <c r="AE169" s="201"/>
-      <c r="AF169" s="201"/>
-      <c r="AG169" s="201"/>
-      <c r="AH169" s="201"/>
+      <c r="E169" s="197" t="s">
+        <v>114</v>
+      </c>
+      <c r="F169" s="197"/>
+      <c r="G169" s="197"/>
+      <c r="H169" s="197"/>
+      <c r="I169" s="198" t="s">
+        <v>115</v>
+      </c>
+      <c r="J169" s="199"/>
+      <c r="K169" s="199"/>
+      <c r="L169" s="199"/>
+      <c r="M169" s="199"/>
+      <c r="N169" s="199"/>
+      <c r="O169" s="199"/>
+      <c r="P169" s="199"/>
+      <c r="Q169" s="199"/>
+      <c r="R169" s="199"/>
+      <c r="S169" s="199"/>
+      <c r="T169" s="199"/>
+      <c r="U169" s="199"/>
+      <c r="V169" s="199"/>
+      <c r="W169" s="199"/>
+      <c r="X169" s="199"/>
+      <c r="Y169" s="199"/>
+      <c r="Z169" s="199"/>
+      <c r="AA169" s="199"/>
+      <c r="AB169" s="199"/>
+      <c r="AC169" s="199"/>
+      <c r="AD169" s="199"/>
+      <c r="AE169" s="200"/>
+      <c r="AF169" s="199"/>
+      <c r="AG169" s="199"/>
+      <c r="AH169" s="199"/>
       <c r="AI169" s="201"/>
-      <c r="AJ169" s="201" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK169" s="201"/>
-      <c r="AL169" s="201"/>
-      <c r="AM169" s="201"/>
-      <c r="AN169" s="201"/>
-      <c r="AO169" s="201"/>
-      <c r="AP169" s="201"/>
-      <c r="AQ169" s="201"/>
-      <c r="AR169" s="201"/>
-      <c r="AS169" s="201"/>
+      <c r="AJ169" s="176" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK169" s="199"/>
+      <c r="AL169" s="199"/>
+      <c r="AM169" s="199"/>
+      <c r="AN169" s="199"/>
+      <c r="AO169" s="199"/>
+      <c r="AP169" s="199"/>
+      <c r="AQ169" s="199"/>
+      <c r="AR169" s="199"/>
+      <c r="AS169" s="199"/>
       <c r="AT169" s="201"/>
       <c r="AU169" s="24"/>
       <c r="AV169" s="19"/>
@@ -17448,54 +17348,54 @@
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="17"/>
       <c r="D170" s="164"/>
-      <c r="E170" s="212" t="s">
-        <v>112</v>
-      </c>
-      <c r="F170" s="212"/>
-      <c r="G170" s="212"/>
-      <c r="H170" s="212"/>
-      <c r="I170" s="213" t="s">
-        <v>113</v>
-      </c>
-      <c r="J170" s="214"/>
-      <c r="K170" s="214"/>
-      <c r="L170" s="214"/>
-      <c r="M170" s="214"/>
-      <c r="N170" s="214"/>
-      <c r="O170" s="214"/>
-      <c r="P170" s="214"/>
-      <c r="Q170" s="214"/>
-      <c r="R170" s="214"/>
-      <c r="S170" s="214"/>
-      <c r="T170" s="214"/>
-      <c r="U170" s="214"/>
-      <c r="V170" s="214"/>
-      <c r="W170" s="214"/>
-      <c r="X170" s="214"/>
-      <c r="Y170" s="214"/>
-      <c r="Z170" s="214"/>
-      <c r="AA170" s="214"/>
-      <c r="AB170" s="214"/>
-      <c r="AC170" s="214"/>
-      <c r="AD170" s="214"/>
-      <c r="AE170" s="215"/>
-      <c r="AF170" s="214"/>
-      <c r="AG170" s="214"/>
-      <c r="AH170" s="214"/>
-      <c r="AI170" s="216"/>
-      <c r="AJ170" s="176" t="s">
-        <v>114</v>
-      </c>
-      <c r="AK170" s="214"/>
-      <c r="AL170" s="214"/>
-      <c r="AM170" s="214"/>
-      <c r="AN170" s="214"/>
-      <c r="AO170" s="214"/>
-      <c r="AP170" s="214"/>
-      <c r="AQ170" s="214"/>
-      <c r="AR170" s="214"/>
-      <c r="AS170" s="214"/>
-      <c r="AT170" s="216"/>
+      <c r="E170" s="202" t="s">
+        <v>117</v>
+      </c>
+      <c r="F170" s="202"/>
+      <c r="G170" s="202"/>
+      <c r="H170" s="202"/>
+      <c r="I170" s="203" t="s">
+        <v>118</v>
+      </c>
+      <c r="J170" s="204"/>
+      <c r="K170" s="204"/>
+      <c r="L170" s="204"/>
+      <c r="M170" s="204"/>
+      <c r="N170" s="204"/>
+      <c r="O170" s="204"/>
+      <c r="P170" s="204"/>
+      <c r="Q170" s="204"/>
+      <c r="R170" s="204"/>
+      <c r="S170" s="204"/>
+      <c r="T170" s="204"/>
+      <c r="U170" s="204"/>
+      <c r="V170" s="204"/>
+      <c r="W170" s="204"/>
+      <c r="X170" s="204"/>
+      <c r="Y170" s="204"/>
+      <c r="Z170" s="204"/>
+      <c r="AA170" s="204"/>
+      <c r="AB170" s="204"/>
+      <c r="AC170" s="204"/>
+      <c r="AD170" s="204"/>
+      <c r="AE170" s="205"/>
+      <c r="AF170" s="204"/>
+      <c r="AG170" s="204"/>
+      <c r="AH170" s="204"/>
+      <c r="AI170" s="206"/>
+      <c r="AJ170" s="207" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK170" s="204"/>
+      <c r="AL170" s="204"/>
+      <c r="AM170" s="204"/>
+      <c r="AN170" s="204"/>
+      <c r="AO170" s="204"/>
+      <c r="AP170" s="204"/>
+      <c r="AQ170" s="204"/>
+      <c r="AR170" s="204"/>
+      <c r="AS170" s="204"/>
+      <c r="AT170" s="206"/>
       <c r="AU170" s="24"/>
       <c r="AV170" s="19"/>
       <c r="AW170" s="20"/>
@@ -17503,56 +17403,50 @@
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="17"/>
       <c r="D171" s="164"/>
-      <c r="E171" s="217" t="s">
-        <v>115</v>
-      </c>
-      <c r="F171" s="217"/>
-      <c r="G171" s="217"/>
-      <c r="H171" s="217"/>
-      <c r="I171" s="218" t="s">
-        <v>116</v>
-      </c>
-      <c r="J171" s="219"/>
-      <c r="K171" s="219"/>
-      <c r="L171" s="219"/>
-      <c r="M171" s="219"/>
-      <c r="N171" s="219"/>
-      <c r="O171" s="219"/>
-      <c r="P171" s="219"/>
-      <c r="Q171" s="219"/>
-      <c r="R171" s="219"/>
-      <c r="S171" s="219"/>
-      <c r="T171" s="219"/>
-      <c r="U171" s="219"/>
-      <c r="V171" s="219"/>
-      <c r="W171" s="219"/>
-      <c r="X171" s="219"/>
-      <c r="Y171" s="219"/>
-      <c r="Z171" s="219"/>
-      <c r="AA171" s="219"/>
-      <c r="AB171" s="219"/>
-      <c r="AC171" s="219"/>
-      <c r="AD171" s="219"/>
-      <c r="AE171" s="220"/>
-      <c r="AF171" s="219"/>
-      <c r="AG171" s="219"/>
-      <c r="AH171" s="219"/>
-      <c r="AI171" s="221"/>
-      <c r="AJ171" s="222" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK171" s="219"/>
-      <c r="AL171" s="219"/>
-      <c r="AM171" s="219"/>
-      <c r="AN171" s="219"/>
-      <c r="AO171" s="219"/>
-      <c r="AP171" s="219"/>
-      <c r="AQ171" s="219"/>
-      <c r="AR171" s="219"/>
-      <c r="AS171" s="219"/>
-      <c r="AT171" s="221"/>
-      <c r="AU171" s="24"/>
-      <c r="AV171" s="19"/>
+      <c r="E171" s="0"/>
+      <c r="F171" s="0"/>
+      <c r="G171" s="0"/>
+      <c r="H171" s="0"/>
+      <c r="I171" s="0"/>
+      <c r="J171" s="0"/>
+      <c r="K171" s="0"/>
+      <c r="L171" s="0"/>
+      <c r="M171" s="0"/>
+      <c r="N171" s="0"/>
+      <c r="O171" s="0"/>
+      <c r="P171" s="0"/>
+      <c r="Q171" s="0"/>
+      <c r="R171" s="0"/>
+      <c r="S171" s="0"/>
+      <c r="T171" s="0"/>
+      <c r="U171" s="0"/>
+      <c r="V171" s="0"/>
+      <c r="W171" s="0"/>
+      <c r="X171" s="0"/>
+      <c r="Y171" s="0"/>
+      <c r="Z171" s="0"/>
+      <c r="AA171" s="0"/>
+      <c r="AB171" s="0"/>
+      <c r="AC171" s="0"/>
+      <c r="AD171" s="0"/>
+      <c r="AE171" s="0"/>
+      <c r="AF171" s="0"/>
+      <c r="AG171" s="0"/>
+      <c r="AH171" s="0"/>
+      <c r="AI171" s="0"/>
+      <c r="AJ171" s="0"/>
+      <c r="AK171" s="0"/>
+      <c r="AL171" s="0"/>
+      <c r="AM171" s="0"/>
+      <c r="AN171" s="0"/>
+      <c r="AO171" s="0"/>
+      <c r="AP171" s="0"/>
+      <c r="AQ171" s="0"/>
+      <c r="AR171" s="0"/>
+      <c r="AS171" s="0"/>
+      <c r="AT171" s="0"/>
+      <c r="AU171" s="0"/>
+      <c r="AV171" s="0"/>
       <c r="AW171" s="20"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18580,50 +18474,49 @@
       <c r="B192" s="0"/>
       <c r="C192" s="0"/>
       <c r="D192" s="0"/>
-      <c r="E192" s="0"/>
-      <c r="F192" s="0"/>
-      <c r="G192" s="0"/>
-      <c r="H192" s="0"/>
-      <c r="I192" s="0"/>
-      <c r="J192" s="0"/>
-      <c r="K192" s="0"/>
-      <c r="L192" s="0"/>
-      <c r="M192" s="0"/>
-      <c r="N192" s="0"/>
-      <c r="O192" s="0"/>
-      <c r="P192" s="0"/>
-      <c r="Q192" s="0"/>
-      <c r="R192" s="0"/>
-      <c r="S192" s="0"/>
-      <c r="T192" s="0"/>
-      <c r="U192" s="0"/>
-      <c r="V192" s="0"/>
-      <c r="W192" s="0"/>
-      <c r="X192" s="0"/>
-      <c r="Y192" s="0"/>
-      <c r="Z192" s="0"/>
-      <c r="AA192" s="0"/>
-      <c r="AB192" s="0"/>
-      <c r="AC192" s="0"/>
-      <c r="AD192" s="0"/>
-      <c r="AE192" s="0"/>
-      <c r="AF192" s="0"/>
-      <c r="AG192" s="0"/>
-      <c r="AH192" s="0"/>
-      <c r="AI192" s="0"/>
-      <c r="AJ192" s="0"/>
-      <c r="AK192" s="0"/>
-      <c r="AL192" s="0"/>
-      <c r="AM192" s="0"/>
-      <c r="AN192" s="0"/>
-      <c r="AO192" s="0"/>
-      <c r="AP192" s="0"/>
-      <c r="AQ192" s="0"/>
-      <c r="AR192" s="0"/>
-      <c r="AS192" s="0"/>
-      <c r="AT192" s="0"/>
-      <c r="AU192" s="0"/>
-      <c r="AV192" s="0"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="24"/>
+      <c r="G192" s="24"/>
+      <c r="H192" s="24"/>
+      <c r="I192" s="24"/>
+      <c r="J192" s="24"/>
+      <c r="K192" s="24"/>
+      <c r="L192" s="24"/>
+      <c r="M192" s="24"/>
+      <c r="N192" s="24"/>
+      <c r="O192" s="24"/>
+      <c r="P192" s="24"/>
+      <c r="Q192" s="24"/>
+      <c r="R192" s="24"/>
+      <c r="S192" s="24"/>
+      <c r="T192" s="24"/>
+      <c r="U192" s="24"/>
+      <c r="V192" s="24"/>
+      <c r="W192" s="24"/>
+      <c r="X192" s="24"/>
+      <c r="Y192" s="24"/>
+      <c r="Z192" s="24"/>
+      <c r="AA192" s="24"/>
+      <c r="AB192" s="24"/>
+      <c r="AC192" s="24"/>
+      <c r="AD192" s="24"/>
+      <c r="AF192" s="24"/>
+      <c r="AG192" s="24"/>
+      <c r="AH192" s="24"/>
+      <c r="AI192" s="24"/>
+      <c r="AJ192" s="208"/>
+      <c r="AK192" s="24"/>
+      <c r="AL192" s="24"/>
+      <c r="AM192" s="24"/>
+      <c r="AN192" s="24"/>
+      <c r="AO192" s="24"/>
+      <c r="AP192" s="24"/>
+      <c r="AQ192" s="24"/>
+      <c r="AR192" s="24"/>
+      <c r="AS192" s="24"/>
+      <c r="AT192" s="24"/>
+      <c r="AU192" s="24"/>
+      <c r="AV192" s="19"/>
       <c r="AW192" s="20"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18658,7 +18551,7 @@
       <c r="AG193" s="24"/>
       <c r="AH193" s="24"/>
       <c r="AI193" s="24"/>
-      <c r="AJ193" s="223"/>
+      <c r="AJ193" s="208"/>
       <c r="AK193" s="24"/>
       <c r="AL193" s="24"/>
       <c r="AM193" s="24"/>
@@ -18675,13 +18568,6 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="17"/>
-      <c r="E194" s="24"/>
-      <c r="F194" s="24"/>
-      <c r="G194" s="24"/>
-      <c r="H194" s="24"/>
-      <c r="I194" s="24"/>
-      <c r="J194" s="24"/>
-      <c r="K194" s="24"/>
       <c r="L194" s="24"/>
       <c r="M194" s="24"/>
       <c r="N194" s="24"/>
@@ -18705,7 +18591,7 @@
       <c r="AG194" s="24"/>
       <c r="AH194" s="24"/>
       <c r="AI194" s="24"/>
-      <c r="AJ194" s="223"/>
+      <c r="AJ194" s="208"/>
       <c r="AK194" s="24"/>
       <c r="AL194" s="24"/>
       <c r="AM194" s="24"/>
@@ -18745,7 +18631,7 @@
       <c r="AG195" s="24"/>
       <c r="AH195" s="24"/>
       <c r="AI195" s="24"/>
-      <c r="AJ195" s="223"/>
+      <c r="AJ195" s="208"/>
       <c r="AK195" s="24"/>
       <c r="AL195" s="24"/>
       <c r="AM195" s="24"/>
@@ -18785,7 +18671,7 @@
       <c r="AG196" s="24"/>
       <c r="AH196" s="24"/>
       <c r="AI196" s="24"/>
-      <c r="AJ196" s="223"/>
+      <c r="AJ196" s="208"/>
       <c r="AK196" s="24"/>
       <c r="AL196" s="24"/>
       <c r="AM196" s="24"/>
@@ -18803,8 +18689,15 @@
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="17"/>
       <c r="D197" s="164" t="s">
-        <v>118</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="E197" s="24"/>
+      <c r="F197" s="24"/>
+      <c r="G197" s="24"/>
+      <c r="H197" s="24"/>
+      <c r="I197" s="24"/>
+      <c r="J197" s="24"/>
+      <c r="K197" s="24"/>
       <c r="L197" s="24"/>
       <c r="M197" s="24"/>
       <c r="N197" s="24"/>
@@ -18828,7 +18721,7 @@
       <c r="AG197" s="24"/>
       <c r="AH197" s="24"/>
       <c r="AI197" s="24"/>
-      <c r="AJ197" s="223"/>
+      <c r="AJ197" s="208"/>
       <c r="AK197" s="24"/>
       <c r="AL197" s="24"/>
       <c r="AM197" s="24"/>
@@ -18844,105 +18737,64 @@
       <c r="AW197" s="20"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="17"/>
-      <c r="D198" s="164"/>
-      <c r="E198" s="24"/>
-      <c r="F198" s="24"/>
-      <c r="G198" s="24"/>
-      <c r="H198" s="24"/>
-      <c r="I198" s="24"/>
-      <c r="J198" s="24"/>
-      <c r="K198" s="24"/>
-      <c r="L198" s="24"/>
-      <c r="M198" s="24"/>
-      <c r="N198" s="24"/>
-      <c r="O198" s="24"/>
-      <c r="P198" s="24"/>
-      <c r="Q198" s="24"/>
-      <c r="R198" s="24"/>
-      <c r="S198" s="24"/>
-      <c r="T198" s="24"/>
-      <c r="U198" s="24"/>
-      <c r="V198" s="24"/>
-      <c r="W198" s="24"/>
-      <c r="X198" s="24"/>
-      <c r="Y198" s="24"/>
-      <c r="Z198" s="24"/>
-      <c r="AA198" s="24"/>
-      <c r="AB198" s="24"/>
-      <c r="AC198" s="24"/>
-      <c r="AD198" s="24"/>
-      <c r="AF198" s="24"/>
-      <c r="AG198" s="24"/>
-      <c r="AH198" s="24"/>
-      <c r="AI198" s="24"/>
-      <c r="AJ198" s="223"/>
-      <c r="AK198" s="24"/>
-      <c r="AL198" s="24"/>
-      <c r="AM198" s="24"/>
-      <c r="AN198" s="24"/>
-      <c r="AO198" s="24"/>
-      <c r="AP198" s="24"/>
-      <c r="AQ198" s="24"/>
-      <c r="AR198" s="24"/>
-      <c r="AS198" s="24"/>
-      <c r="AT198" s="24"/>
-      <c r="AU198" s="24"/>
-      <c r="AV198" s="19"/>
-      <c r="AW198" s="20"/>
+      <c r="A198" s="209"/>
+      <c r="B198" s="209"/>
+      <c r="C198" s="209"/>
+      <c r="D198" s="209"/>
+      <c r="E198" s="209"/>
+      <c r="F198" s="209"/>
+      <c r="G198" s="210"/>
+      <c r="H198" s="210"/>
+      <c r="I198" s="210"/>
+      <c r="J198" s="210"/>
+      <c r="K198" s="210"/>
+      <c r="L198" s="210"/>
+      <c r="M198" s="210"/>
+      <c r="N198" s="210"/>
+      <c r="O198" s="210"/>
+      <c r="P198" s="210"/>
+      <c r="Q198" s="210"/>
+      <c r="R198" s="210"/>
+      <c r="S198" s="210"/>
+      <c r="T198" s="210"/>
+      <c r="U198" s="210"/>
+      <c r="V198" s="210"/>
+      <c r="W198" s="210"/>
+      <c r="X198" s="210"/>
+      <c r="Y198" s="210"/>
+      <c r="Z198" s="210"/>
+      <c r="AA198" s="210"/>
+      <c r="AB198" s="210"/>
+      <c r="AC198" s="210"/>
+      <c r="AD198" s="210"/>
+      <c r="AE198" s="211"/>
+      <c r="AF198" s="210"/>
+      <c r="AG198" s="210"/>
+      <c r="AH198" s="210"/>
+      <c r="AI198" s="210"/>
+      <c r="AJ198" s="212"/>
+      <c r="AK198" s="210"/>
+      <c r="AL198" s="210"/>
+      <c r="AM198" s="210"/>
+      <c r="AN198" s="210"/>
+      <c r="AO198" s="210"/>
+      <c r="AP198" s="210"/>
+      <c r="AQ198" s="210"/>
+      <c r="AR198" s="210"/>
+      <c r="AS198" s="210"/>
+      <c r="AT198" s="210"/>
+      <c r="AU198" s="210"/>
+      <c r="AV198" s="26"/>
+      <c r="AW198" s="27"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="25"/>
-      <c r="B199" s="224"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="225"/>
-      <c r="E199" s="225"/>
-      <c r="F199" s="225"/>
-      <c r="G199" s="226"/>
-      <c r="H199" s="226"/>
-      <c r="I199" s="226"/>
-      <c r="J199" s="226"/>
-      <c r="K199" s="226"/>
-      <c r="L199" s="226"/>
-      <c r="M199" s="226"/>
-      <c r="N199" s="226"/>
-      <c r="O199" s="226"/>
-      <c r="P199" s="226"/>
-      <c r="Q199" s="226"/>
-      <c r="R199" s="226"/>
-      <c r="S199" s="226"/>
-      <c r="T199" s="226"/>
-      <c r="U199" s="226"/>
-      <c r="V199" s="226"/>
-      <c r="W199" s="226"/>
-      <c r="X199" s="226"/>
-      <c r="Y199" s="226"/>
-      <c r="Z199" s="226"/>
-      <c r="AA199" s="226"/>
-      <c r="AB199" s="226"/>
-      <c r="AC199" s="226"/>
-      <c r="AD199" s="226"/>
-      <c r="AE199" s="227"/>
-      <c r="AF199" s="226"/>
-      <c r="AG199" s="226"/>
-      <c r="AH199" s="226"/>
-      <c r="AI199" s="226"/>
-      <c r="AJ199" s="228"/>
-      <c r="AK199" s="226"/>
-      <c r="AL199" s="226"/>
-      <c r="AM199" s="226"/>
-      <c r="AN199" s="226"/>
-      <c r="AO199" s="226"/>
-      <c r="AP199" s="226"/>
-      <c r="AQ199" s="226"/>
-      <c r="AR199" s="226"/>
-      <c r="AS199" s="226"/>
-      <c r="AT199" s="226"/>
-      <c r="AU199" s="226"/>
-      <c r="AV199" s="26"/>
-      <c r="AW199" s="27"/>
+      <c r="A199" s="213"/>
+      <c r="B199" s="214"/>
+      <c r="C199" s="213"/>
+      <c r="D199" s="215"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="115">
     <mergeCell ref="A1:I3"/>
@@ -19030,23 +18882,23 @@
     <mergeCell ref="AA123:AG123"/>
     <mergeCell ref="AH123:AL123"/>
     <mergeCell ref="AM123:AW123"/>
-    <mergeCell ref="C130:H130"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="M130:O130"/>
-    <mergeCell ref="P130:R130"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="U130:X130"/>
-    <mergeCell ref="Y130:AB130"/>
-    <mergeCell ref="AC130:AU130"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="C137:L137"/>
-    <mergeCell ref="M137:V137"/>
-    <mergeCell ref="W137:AU137"/>
-    <mergeCell ref="C143:L143"/>
-    <mergeCell ref="M143:V143"/>
-    <mergeCell ref="W143:AU143"/>
+    <mergeCell ref="D130:I130"/>
+    <mergeCell ref="J130:M130"/>
+    <mergeCell ref="N130:P130"/>
+    <mergeCell ref="Q130:S130"/>
+    <mergeCell ref="T130:U130"/>
+    <mergeCell ref="V130:Y130"/>
+    <mergeCell ref="Z130:AC130"/>
+    <mergeCell ref="AD130:AV130"/>
+    <mergeCell ref="T131:U131"/>
+    <mergeCell ref="T132:U132"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="D137:M137"/>
+    <mergeCell ref="N137:W137"/>
+    <mergeCell ref="X137:AV137"/>
+    <mergeCell ref="D143:M143"/>
+    <mergeCell ref="N143:W143"/>
+    <mergeCell ref="X143:AV143"/>
     <mergeCell ref="AY148:BJ148"/>
     <mergeCell ref="F152:M152"/>
     <mergeCell ref="N152:AI152"/>
@@ -19056,10 +18908,10 @@
     <mergeCell ref="E161:K161"/>
     <mergeCell ref="L161:AU161"/>
     <mergeCell ref="E162:K163"/>
-    <mergeCell ref="I169:AI169"/>
-    <mergeCell ref="AJ169:AT169"/>
+    <mergeCell ref="I168:AI168"/>
+    <mergeCell ref="AJ168:AT168"/>
+    <mergeCell ref="E169:H169"/>
     <mergeCell ref="E170:H170"/>
-    <mergeCell ref="E171:H171"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/design/chitiet/productDetail.xlsx
+++ b/design/chitiet/productDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_bia" sheetId="1" state="visible" r:id="rId2"/>
@@ -336,16 +336,16 @@
     <t xml:space="preserve">Products </t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý products </t>
+    <t xml:space="preserve">Table sản phẩm </t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t xml:space="preserve">Cart </t>
+    <t xml:space="preserve">Cart_item</t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý cart</t>
+    <t xml:space="preserve">Table giỏ hàng </t>
   </si>
   <si>
     <t xml:space="preserve">In</t>
@@ -354,7 +354,7 @@
     <t xml:space="preserve">User </t>
   </si>
   <si>
-    <t xml:space="preserve">Table quản lý user </t>
+    <t xml:space="preserve">Table user</t>
   </si>
   <si>
     <r>
@@ -2122,9 +2122,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2138,7 +2138,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675720" cy="969840"/>
+          <a:ext cx="675000" cy="969120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2159,9 +2159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>121320</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2171,7 +2171,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2779560" cy="2608200"/>
+          <a:ext cx="2778840" cy="2607480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2203,9 +2203,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2215,7 +2215,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1188360" cy="426960"/>
+          <a:ext cx="1187640" cy="426240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2254,7 +2254,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Màn hình Login</a:t>
+            <a:t>Màn hình chi tiết sản phẩm </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2273,9 +2273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>64080</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>92880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2285,7 +2285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="995040" cy="398160"/>
+          <a:ext cx="994320" cy="397440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2447,9 +2447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178920</xdr:colOff>
+      <xdr:colOff>178200</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2459,7 +2459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="913680" cy="398520"/>
+          <a:ext cx="912960" cy="397800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2515,9 +2515,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2531,7 +2531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675720" cy="969840"/>
+          <a:ext cx="675000" cy="969120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2552,9 +2552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>125280</xdr:colOff>
+      <xdr:colOff>124560</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2564,7 +2564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2147400" y="24320520"/>
-          <a:ext cx="954720" cy="645840"/>
+          <a:ext cx="954000" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2619,13 +2619,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>144360</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
+      <xdr:colOff>146160</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2634,8 +2634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2563200" y="23535360"/>
-          <a:ext cx="932760" cy="771120"/>
+          <a:off x="2563200" y="23535000"/>
+          <a:ext cx="932040" cy="770400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2680,9 +2680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:colOff>140040</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2692,7 +2692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3279240" y="24444720"/>
-          <a:ext cx="954720" cy="645840"/>
+          <a:ext cx="954000" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2732,7 +2732,7 @@
               </a:solidFill>
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Cart</a:t>
+            <a:t>Cart_item</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2747,13 +2747,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>23400</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>69480</xdr:colOff>
+      <xdr:colOff>68760</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2762,8 +2762,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3744360" y="23558760"/>
-          <a:ext cx="232200" cy="911520"/>
+          <a:off x="3744360" y="23558400"/>
+          <a:ext cx="231480" cy="910800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2808,9 +2808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>78840</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2820,7 +2820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4519800" y="24437160"/>
-          <a:ext cx="954720" cy="645840"/>
+          <a:ext cx="954000" cy="645120"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2873,15 +2873,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>92520</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>185400</xdr:colOff>
+      <xdr:colOff>184320</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2890,8 +2890,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3999600" y="23550840"/>
-          <a:ext cx="1022760" cy="872640"/>
+          <a:off x="3999240" y="23550480"/>
+          <a:ext cx="1022040" cy="871920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2941,9 +2941,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
+      <xdr:colOff>92880</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2953,7 +2953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816800" cy="417600"/>
+          <a:ext cx="4816080" cy="416880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2989,9 +2989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3005,7 +3005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="728640" y="1225080"/>
-          <a:ext cx="7835760" cy="4715280"/>
+          <a:ext cx="7835040" cy="4714560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3027,8 +3027,8 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M148" activeCellId="0" sqref="M148"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U126" activeCellId="0" sqref="U126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10942,7 +10942,7 @@
   </sheetPr>
   <dimension ref="A1:BJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A131" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D149" activeCellId="0" sqref="D149"/>
     </sheetView>
   </sheetViews>
